--- a/input/vaginal_mrs.xlsx
+++ b/input/vaginal_mrs.xlsx
@@ -14,38 +14,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+  <si>
+    <t>Adenomyosis</t>
+  </si>
+  <si>
+    <t>Cervical Intraepithelial Neoplasia</t>
+  </si>
+  <si>
+    <t>Dysmenorrhea (Menstrual pain)</t>
+  </si>
+  <si>
+    <t>Endometritis</t>
+  </si>
+  <si>
+    <t>Gestational Diabetes</t>
+  </si>
+  <si>
+    <t>Miscarriage</t>
+  </si>
+  <si>
+    <t>Ovarian Cancer</t>
+  </si>
   <si>
     <t>Pelvic Inflammatory Diseases</t>
   </si>
   <si>
-    <t>Endometritis</t>
-  </si>
-  <si>
-    <t>Miscarriage</t>
-  </si>
-  <si>
-    <t>Ovarian Cancer</t>
-  </si>
-  <si>
-    <t>Cervical Intraepithelial Neoplasia</t>
-  </si>
-  <si>
     <t>Preterm Prelabor Rupture of Membranes (PPROM)</t>
   </si>
   <si>
-    <t>Dysmenorrhea (Menstrual pain)</t>
-  </si>
-  <si>
-    <t>Adenomyosis</t>
-  </si>
-  <si>
     <t>Vaginal Dryness</t>
   </si>
   <si>
-    <t>Gestational Diabetes</t>
-  </si>
-  <si>
     <t>20230116_BC05</t>
   </si>
   <si>
@@ -212,6 +212,111 @@
   </si>
   <si>
     <t>20230215_BC08</t>
+  </si>
+  <si>
+    <t>20230328_BC49</t>
+  </si>
+  <si>
+    <t>20230328_BC34</t>
+  </si>
+  <si>
+    <t>20230328_BC36</t>
+  </si>
+  <si>
+    <t>20230328_BC32</t>
+  </si>
+  <si>
+    <t>20230328_BC50</t>
+  </si>
+  <si>
+    <t>20230328_BC38</t>
+  </si>
+  <si>
+    <t>20230328_BC56</t>
+  </si>
+  <si>
+    <t>20230328_BC40</t>
+  </si>
+  <si>
+    <t>20230328_BC46</t>
+  </si>
+  <si>
+    <t>20230328_BC39</t>
+  </si>
+  <si>
+    <t>20230328_BC55</t>
+  </si>
+  <si>
+    <t>20230328_BC37</t>
+  </si>
+  <si>
+    <t>20230328_BC52</t>
+  </si>
+  <si>
+    <t>20230328_BC53</t>
+  </si>
+  <si>
+    <t>20230328_BC35</t>
+  </si>
+  <si>
+    <t>20230328_BC44</t>
+  </si>
+  <si>
+    <t>20230328_BC42</t>
+  </si>
+  <si>
+    <t>20230328_BC43</t>
+  </si>
+  <si>
+    <t>20230328_BC47</t>
+  </si>
+  <si>
+    <t>20230328_BC41</t>
+  </si>
+  <si>
+    <t>20230328_BC33</t>
+  </si>
+  <si>
+    <t>20230328_BC51</t>
+  </si>
+  <si>
+    <t>20230328_BC54</t>
+  </si>
+  <si>
+    <t>20230328_BC48</t>
+  </si>
+  <si>
+    <t>20230328_BC45</t>
+  </si>
+  <si>
+    <t>20230322_BC72</t>
+  </si>
+  <si>
+    <t>20230322_BC77</t>
+  </si>
+  <si>
+    <t>20230322_BC89</t>
+  </si>
+  <si>
+    <t>20230322_BC73</t>
+  </si>
+  <si>
+    <t>20230322_BC74</t>
+  </si>
+  <si>
+    <t>20230322_BC75</t>
+  </si>
+  <si>
+    <t>20230322_BC76</t>
+  </si>
+  <si>
+    <t>20230322_BC96</t>
+  </si>
+  <si>
+    <t>20230322_BC79</t>
+  </si>
+  <si>
+    <t>20230322_BC71</t>
   </si>
 </sst>
 </file>
@@ -569,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,34 +717,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-34.53877639491068</v>
+        <v>-28.3529960524415</v>
       </c>
       <c r="C2">
-        <v>-24.53512733666443</v>
+        <v>-6.813467251530764</v>
       </c>
       <c r="D2">
+        <v>-21.58072934625975</v>
+      </c>
+      <c r="E2">
+        <v>-24.20030795337192</v>
+      </c>
+      <c r="F2">
+        <v>-12.15344028468581</v>
+      </c>
+      <c r="G2">
         <v>-19.00786763489197</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>-6.813467251530764</v>
-      </c>
-      <c r="G2">
+      <c r="I2">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J2">
         <v>-22.83751417119111</v>
       </c>
-      <c r="H2">
-        <v>-16.47895609706244</v>
-      </c>
-      <c r="I2">
-        <v>-28.97157408668842</v>
-      </c>
-      <c r="J2">
-        <v>-11.38231656596176</v>
-      </c>
       <c r="K2">
-        <v>-12.97199195072893</v>
+        <v>-31.09367765369507</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -647,34 +752,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-34.53877639491068</v>
+        <v>-28.9915539328682</v>
       </c>
       <c r="C3">
-        <v>-25.51104289490133</v>
+        <v>-13.8175611501872</v>
       </c>
       <c r="D3">
+        <v>-24.15303732972091</v>
+      </c>
+      <c r="E3">
+        <v>-25.49679436628258</v>
+      </c>
+      <c r="F3">
+        <v>-14.7363187234799</v>
+      </c>
+      <c r="G3">
         <v>-25.90664553646167</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>-13.8175611501872</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J3">
         <v>-30.70832609973436</v>
       </c>
-      <c r="H3">
-        <v>-18.81741790020894</v>
-      </c>
-      <c r="I3">
-        <v>-29.54627617907245</v>
-      </c>
-      <c r="J3">
-        <v>-18.59688097466942</v>
-      </c>
       <c r="K3">
-        <v>-15.14160983931597</v>
+        <v>-32.96412027817483</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -682,34 +787,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-34.53877639491068</v>
+        <v>-28.54054120685159</v>
       </c>
       <c r="C4">
-        <v>-24.02606636813285</v>
+        <v>-10.27076737707127</v>
       </c>
       <c r="D4">
+        <v>-22.95335838992053</v>
+      </c>
+      <c r="E4">
+        <v>-24.28977845713412</v>
+      </c>
+      <c r="F4">
+        <v>-16.12331803572265</v>
+      </c>
+      <c r="G4">
         <v>-21.52922475904001</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>-4.110846361867453</v>
       </c>
-      <c r="F4">
-        <v>-10.27076737707127</v>
-      </c>
-      <c r="G4">
+      <c r="I4">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J4">
         <v>-15.09498789863872</v>
       </c>
-      <c r="H4">
-        <v>-17.72680068220861</v>
-      </c>
-      <c r="I4">
-        <v>-29.1403647256575</v>
-      </c>
-      <c r="J4">
-        <v>-8.031523245178798</v>
-      </c>
       <c r="K4">
-        <v>-17.29329238844807</v>
+        <v>-30.224953459418</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -720,31 +825,31 @@
         <v>-34.53877639491068</v>
       </c>
       <c r="C5">
-        <v>-23.92098878519972</v>
+        <v>-25.71080154568909</v>
       </c>
       <c r="D5">
-        <v>-34.53877639491068</v>
+        <v>-27.56170639787333</v>
       </c>
       <c r="E5">
+        <v>-24.10326262558365</v>
+      </c>
+      <c r="F5">
+        <v>-12.11154157044472</v>
+      </c>
+      <c r="G5">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H5">
         <v>-5.30403503103819</v>
       </c>
-      <c r="F5">
-        <v>-25.71080154568909</v>
-      </c>
-      <c r="G5">
+      <c r="I5">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J5">
         <v>-21.62552471137915</v>
       </c>
-      <c r="H5">
-        <v>-21.91620796216569</v>
-      </c>
-      <c r="I5">
-        <v>-34.53877639491068</v>
-      </c>
-      <c r="J5">
-        <v>-13.8722958348891</v>
-      </c>
       <c r="K5">
-        <v>-12.93679703076642</v>
+        <v>-31.73922783452808</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -752,34 +857,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-34.53877639491068</v>
+        <v>-31.84026072492718</v>
       </c>
       <c r="C6">
-        <v>-26.11220716713757</v>
+        <v>-9.110455181468705</v>
       </c>
       <c r="D6">
+        <v>-26.15798378967879</v>
+      </c>
+      <c r="E6">
+        <v>-26.23799129492249</v>
+      </c>
+      <c r="F6">
+        <v>-15.91520656438908</v>
+      </c>
+      <c r="G6">
         <v>-28.4671161374478</v>
       </c>
-      <c r="E6">
-        <v>-4.31601315704378</v>
-      </c>
-      <c r="F6">
-        <v>-9.110455181468703</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>-4.316013157043781</v>
+      </c>
+      <c r="I6">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J6">
         <v>-23.80127522598046</v>
       </c>
-      <c r="H6">
-        <v>-20.64009650017066</v>
-      </c>
-      <c r="I6">
-        <v>-32.11011229192552</v>
-      </c>
-      <c r="J6">
-        <v>-9.129452530262451</v>
-      </c>
       <c r="K6">
-        <v>-16.13187562567968</v>
+        <v>-30.50960179258784</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -787,34 +892,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-34.53877639491068</v>
+        <v>-28.52339466405864</v>
       </c>
       <c r="C7">
-        <v>-25.31611813419547</v>
+        <v>-10.73350966981404</v>
       </c>
       <c r="D7">
+        <v>-24.75715204675626</v>
+      </c>
+      <c r="E7">
+        <v>-25.26506389086244</v>
+      </c>
+      <c r="F7">
+        <v>-13.29108024483206</v>
+      </c>
+      <c r="G7">
         <v>-28.38182218802168</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>-10.73350966981404</v>
-      </c>
-      <c r="G7">
+      <c r="I7">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J7">
         <v>-26.75804499377734</v>
       </c>
-      <c r="H7">
-        <v>-19.36661309751381</v>
-      </c>
-      <c r="I7">
-        <v>-29.12493283714384</v>
-      </c>
-      <c r="J7">
-        <v>-13.90765229206133</v>
-      </c>
       <c r="K7">
-        <v>-13.92760951725178</v>
+        <v>-31.74839432342459</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -825,31 +930,31 @@
         <v>-34.53877639491068</v>
       </c>
       <c r="C8">
-        <v>-25.59130226934514</v>
+        <v>-4.630892948451658</v>
       </c>
       <c r="D8">
+        <v>-18.69899069896423</v>
+      </c>
+      <c r="E8">
+        <v>-25.25358985139187</v>
+      </c>
+      <c r="F8">
+        <v>-19.62916169895707</v>
+      </c>
+      <c r="G8">
         <v>-26.90852431181426</v>
       </c>
-      <c r="E8">
-        <v>-5.328095586480259</v>
-      </c>
-      <c r="F8">
-        <v>-4.630892948451658</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>-5.32809558648026</v>
+      </c>
+      <c r="I8">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J8">
         <v>-16.83223727740449</v>
       </c>
-      <c r="H8">
-        <v>-13.85919369043014</v>
-      </c>
-      <c r="I8">
-        <v>-34.53877639491068</v>
-      </c>
-      <c r="J8">
-        <v>-8.99196532608768</v>
-      </c>
       <c r="K8">
-        <v>-19.25159793871679</v>
+        <v>-30.47395696187587</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -860,31 +965,31 @@
         <v>-34.53877639491068</v>
       </c>
       <c r="C9">
-        <v>-24.87132173964284</v>
+        <v>1.241987698097417</v>
       </c>
       <c r="D9">
+        <v>-18.6765555594968</v>
+      </c>
+      <c r="E9">
+        <v>-24.7992154165285</v>
+      </c>
+      <c r="F9">
+        <v>-13.71672458333363</v>
+      </c>
+      <c r="G9">
         <v>-21.21901855142399</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>-8.810681253647381</v>
       </c>
-      <c r="F9">
-        <v>1.241987698097417</v>
-      </c>
-      <c r="G9">
+      <c r="I9">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J9">
         <v>-18.27209451515622</v>
       </c>
-      <c r="H9">
-        <v>-13.83879810909612</v>
-      </c>
-      <c r="I9">
-        <v>-34.53877639491068</v>
-      </c>
-      <c r="J9">
-        <v>-14.66740965369899</v>
-      </c>
       <c r="K9">
-        <v>-14.2851507615931</v>
+        <v>-31.94536845421954</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -895,31 +1000,31 @@
         <v>-34.53877639491068</v>
       </c>
       <c r="C10">
-        <v>-23.81722358399731</v>
+        <v>3.464131756254947</v>
       </c>
       <c r="D10">
+        <v>-18.31466893426314</v>
+      </c>
+      <c r="E10">
+        <v>-23.72615953053975</v>
+      </c>
+      <c r="F10">
+        <v>-13.67385338673959</v>
+      </c>
+      <c r="G10">
         <v>-19.83458333166486</v>
       </c>
-      <c r="E10">
-        <v>-0.6678888642044831</v>
-      </c>
-      <c r="F10">
-        <v>3.464131756254947</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>-0.6678888642044835</v>
+      </c>
+      <c r="I10">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J10">
         <v>-13.58718795992463</v>
       </c>
-      <c r="H10">
-        <v>-13.50981026797461</v>
-      </c>
-      <c r="I10">
-        <v>-34.53877639491068</v>
-      </c>
-      <c r="J10">
-        <v>-11.29560207360605</v>
-      </c>
       <c r="K10">
-        <v>-14.24913895645411</v>
+        <v>-31.07119611863989</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -927,34 +1032,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-34.53877639491068</v>
+        <v>-28.53895111711269</v>
       </c>
       <c r="C11">
-        <v>-25.56476577575203</v>
+        <v>-15.75517189828023</v>
       </c>
       <c r="D11">
+        <v>-24.68447686526778</v>
+      </c>
+      <c r="E11">
+        <v>-25.22773664669167</v>
+      </c>
+      <c r="F11">
+        <v>-14.51946928580619</v>
+      </c>
+      <c r="G11">
         <v>-28.32865897157797</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>-15.75517189828023</v>
-      </c>
-      <c r="G11">
+      <c r="I11">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J11">
         <v>-22.77814272011263</v>
       </c>
-      <c r="H11">
-        <v>-19.30054475070611</v>
-      </c>
-      <c r="I11">
-        <v>-29.13893364489248</v>
-      </c>
-      <c r="J11">
-        <v>-6.511698957049428</v>
-      </c>
       <c r="K11">
-        <v>-14.95945631167005</v>
+        <v>-29.83092494027336</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -962,34 +1067,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-34.53877639491068</v>
+        <v>-30.81509686951044</v>
       </c>
       <c r="C12">
-        <v>-24.42299144484525</v>
+        <v>-15.76655446513423</v>
       </c>
       <c r="D12">
+        <v>-18.97779297008447</v>
+      </c>
+      <c r="E12">
+        <v>-24.01680819041527</v>
+      </c>
+      <c r="F12">
+        <v>-16.19662359652261</v>
+      </c>
+      <c r="G12">
         <v>-28.34288718014546</v>
       </c>
-      <c r="E12">
-        <v>-9.582886654128819</v>
-      </c>
-      <c r="F12">
-        <v>-15.76655446513423</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
+        <v>-9.582886654128821</v>
+      </c>
+      <c r="I12">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J12">
         <v>-16.71153301515192</v>
       </c>
-      <c r="H12">
-        <v>-14.11265030053945</v>
-      </c>
-      <c r="I12">
-        <v>-31.18746482205046</v>
-      </c>
-      <c r="J12">
-        <v>-6.809870418532528</v>
-      </c>
       <c r="K12">
-        <v>-16.36826593267184</v>
+        <v>-29.90822865250971</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1000,31 +1105,31 @@
         <v>-34.53877639491068</v>
       </c>
       <c r="C13">
-        <v>-24.50293661781658</v>
+        <v>-3.63672441118062</v>
       </c>
       <c r="D13">
+        <v>-22.34162035773085</v>
+      </c>
+      <c r="E13">
+        <v>-24.52659367539022</v>
+      </c>
+      <c r="F13">
+        <v>-16.19423254862012</v>
+      </c>
+      <c r="G13">
         <v>-27.61091893675941</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>-4.647920139944339</v>
       </c>
-      <c r="F13">
-        <v>-3.63672441118062</v>
-      </c>
-      <c r="G13">
+      <c r="I13">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J13">
         <v>-19.02440174546285</v>
       </c>
-      <c r="H13">
-        <v>-17.17067519839981</v>
-      </c>
-      <c r="I13">
-        <v>-34.53877639491068</v>
-      </c>
-      <c r="J13">
-        <v>-7.989633548697781</v>
-      </c>
       <c r="K13">
-        <v>-16.36625745243376</v>
+        <v>-30.21409316773774</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1032,34 +1137,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-34.53877639491068</v>
+        <v>-28.52635633011286</v>
       </c>
       <c r="C14">
-        <v>-23.71152021731978</v>
+        <v>-20.72326583694641</v>
       </c>
       <c r="D14">
-        <v>-34.53877639491068</v>
+        <v>-24.43628026454059</v>
       </c>
       <c r="E14">
+        <v>-23.58604201625955</v>
+      </c>
+      <c r="F14">
+        <v>-16.29979330432603</v>
+      </c>
+      <c r="G14">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H14">
         <v>-8.599014018430482</v>
       </c>
-      <c r="F14">
-        <v>-20.72326583694641</v>
-      </c>
-      <c r="G14">
+      <c r="I14">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J14">
         <v>-18.35268645590622</v>
       </c>
-      <c r="H14">
-        <v>-19.07491147731775</v>
-      </c>
-      <c r="I14">
-        <v>-29.12759833659264</v>
-      </c>
-      <c r="J14">
-        <v>-5.164764685906393</v>
-      </c>
       <c r="K14">
-        <v>-16.45492848722671</v>
+        <v>-29.48171975886591</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1067,34 +1172,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-34.53877639491068</v>
+        <v>-31.72782778684413</v>
       </c>
       <c r="C15">
-        <v>-23.56034140672529</v>
+        <v>-20.80435885856729</v>
       </c>
       <c r="D15">
-        <v>-34.53877639491068</v>
+        <v>-24.59160081433979</v>
       </c>
       <c r="E15">
+        <v>-23.73933709461528</v>
+      </c>
+      <c r="F15">
+        <v>-15.4555050249118</v>
+      </c>
+      <c r="G15">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H15">
         <v>-5.286976186997671</v>
       </c>
-      <c r="F15">
-        <v>-20.80435885856729</v>
-      </c>
-      <c r="G15">
+      <c r="I15">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J15">
         <v>-12.71753696046791</v>
       </c>
-      <c r="H15">
-        <v>-19.2161119771352</v>
-      </c>
-      <c r="I15">
-        <v>-32.00892264765078</v>
-      </c>
-      <c r="J15">
-        <v>-6.146487828856114</v>
-      </c>
       <c r="K15">
-        <v>-15.74572633251877</v>
+        <v>-29.73624057370472</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1102,34 +1207,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-34.53877639491068</v>
+        <v>-31.81515096939276</v>
       </c>
       <c r="C16">
-        <v>-24.04472726905228</v>
+        <v>-5.242374299692935</v>
       </c>
       <c r="D16">
+        <v>-20.370740567597</v>
+      </c>
+      <c r="E16">
+        <v>-23.70595819251075</v>
+      </c>
+      <c r="F16">
+        <v>-14.90296812607361</v>
+      </c>
+      <c r="G16">
         <v>-14.61190208955032</v>
       </c>
-      <c r="E16">
-        <v>-4.163772076484341</v>
-      </c>
-      <c r="F16">
-        <v>-5.242374299692935</v>
-      </c>
-      <c r="G16">
+      <c r="H16">
+        <v>-4.163772076484343</v>
+      </c>
+      <c r="I16">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J16">
         <v>-15.75395202099543</v>
       </c>
-      <c r="H16">
-        <v>-15.37896629827812</v>
-      </c>
-      <c r="I16">
-        <v>-32.08751351194455</v>
-      </c>
-      <c r="J16">
-        <v>-15.69624615178165</v>
-      </c>
       <c r="K16">
-        <v>-15.28159533749469</v>
+        <v>-32.21210384261133</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1137,34 +1242,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-34.53877639491068</v>
+        <v>-26.21455554259562</v>
       </c>
       <c r="C17">
-        <v>-23.78019245517826</v>
+        <v>-11.39538802094697</v>
       </c>
       <c r="D17">
+        <v>-23.26892626690194</v>
+      </c>
+      <c r="E17">
+        <v>-24.07230770572477</v>
+      </c>
+      <c r="F17">
+        <v>-14.76022786366114</v>
+      </c>
+      <c r="G17">
         <v>-21.88897357427104</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>-11.39538802094697</v>
-      </c>
-      <c r="G17">
+      <c r="I17">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J17">
         <v>-26.88968350038133</v>
       </c>
-      <c r="H17">
-        <v>-18.01368057037351</v>
-      </c>
-      <c r="I17">
-        <v>-27.04697762782713</v>
-      </c>
-      <c r="J17">
-        <v>-12.50661116204859</v>
-      </c>
       <c r="K17">
-        <v>-15.16169351706822</v>
+        <v>-31.38516143786573</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1172,34 +1277,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-34.53877639491068</v>
+        <v>-28.21306378397299</v>
       </c>
       <c r="C18">
-        <v>-23.47272506954771</v>
+        <v>-11.03158959637544</v>
       </c>
       <c r="D18">
+        <v>-22.84626148200024</v>
+      </c>
+      <c r="E18">
+        <v>-23.67082537607288</v>
+      </c>
+      <c r="F18">
+        <v>-12.5572410616586</v>
+      </c>
+      <c r="G18">
         <v>-28.20682567239016</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>-9.346514381608053</v>
       </c>
-      <c r="F18">
-        <v>-11.03158959637543</v>
-      </c>
-      <c r="G18">
+      <c r="I18">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J18">
         <v>-12.77988959058959</v>
       </c>
-      <c r="H18">
-        <v>-17.62943985682652</v>
-      </c>
-      <c r="I18">
-        <v>-28.84563504506676</v>
-      </c>
-      <c r="J18">
-        <v>-7.750861666891931</v>
-      </c>
       <c r="K18">
-        <v>-13.31118460338608</v>
+        <v>-30.15218934652882</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1207,34 +1312,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-34.53877639491068</v>
+        <v>-29.00468089276962</v>
       </c>
       <c r="C19">
-        <v>-24.05847862974282</v>
+        <v>-15.54641403441878</v>
       </c>
       <c r="D19">
+        <v>-21.57260836432066</v>
+      </c>
+      <c r="E19">
+        <v>-23.64334393882994</v>
+      </c>
+      <c r="F19">
+        <v>-15.30628708759645</v>
+      </c>
+      <c r="G19">
         <v>-27.7930585695854</v>
       </c>
-      <c r="E19">
-        <v>-5.178164610011053</v>
-      </c>
-      <c r="F19">
-        <v>-15.54641403441878</v>
-      </c>
-      <c r="G19">
+      <c r="H19">
+        <v>-5.178164610011055</v>
+      </c>
+      <c r="I19">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J19">
         <v>-16.45265614995557</v>
       </c>
-      <c r="H19">
-        <v>-16.47157338620872</v>
-      </c>
-      <c r="I19">
-        <v>-29.55809044298372</v>
-      </c>
-      <c r="J19">
-        <v>-9.997367549895381</v>
-      </c>
       <c r="K19">
-        <v>-15.62038326517386</v>
+        <v>-30.73461679767786</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1242,34 +1347,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-34.53877639491068</v>
+        <v>-23.33638547617214</v>
       </c>
       <c r="C20">
-        <v>-23.84866675859713</v>
+        <v>-12.40311604479394</v>
       </c>
       <c r="D20">
+        <v>-23.35415007368953</v>
+      </c>
+      <c r="E20">
+        <v>-23.82678384238937</v>
+      </c>
+      <c r="F20">
+        <v>-13.45362373520112</v>
+      </c>
+      <c r="G20">
         <v>-28.26277307237708</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>-4.251579733039648</v>
       </c>
-      <c r="F20">
-        <v>-12.40311604479394</v>
-      </c>
-      <c r="G20">
-        <v>-23.43898975957152</v>
-      </c>
-      <c r="H20">
-        <v>-18.09115675836224</v>
-      </c>
       <c r="I20">
-        <v>-24.45662456804599</v>
+        <v>-34.53877639491068</v>
       </c>
       <c r="J20">
-        <v>-16.24711342743223</v>
+        <v>-23.43898975957151</v>
       </c>
       <c r="K20">
-        <v>-14.0641460491618</v>
+        <v>-32.35492128444668</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1277,34 +1382,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-34.53877639491068</v>
+        <v>-29.0216657899971</v>
       </c>
       <c r="C21">
-        <v>-22.90363772272051</v>
+        <v>-10.74783803783926</v>
       </c>
       <c r="D21">
+        <v>-19.30386895351559</v>
+      </c>
+      <c r="E21">
+        <v>-22.69550918434969</v>
+      </c>
+      <c r="F21">
+        <v>-14.26482558571646</v>
+      </c>
+      <c r="G21">
         <v>-22.12527753385512</v>
       </c>
-      <c r="E21">
-        <v>-5.190630363319563</v>
-      </c>
-      <c r="F21">
-        <v>-10.74783803783926</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
+        <v>-5.190630363319564</v>
+      </c>
+      <c r="I21">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J21">
         <v>-16.58412955516146</v>
       </c>
-      <c r="H21">
-        <v>-14.40908301274956</v>
-      </c>
-      <c r="I21">
-        <v>-29.57337685048845</v>
-      </c>
-      <c r="J21">
-        <v>-9.786090596745472</v>
-      </c>
       <c r="K21">
-        <v>-15.72477256886817</v>
+        <v>-30.67984129130566</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1312,34 +1417,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-34.53877639491068</v>
+        <v>-28.71772154546345</v>
       </c>
       <c r="C22">
-        <v>-23.32506174263168</v>
+        <v>-10.77632824525644</v>
       </c>
       <c r="D22">
+        <v>-22.9799386567218</v>
+      </c>
+      <c r="E22">
+        <v>-23.50652275420976</v>
+      </c>
+      <c r="F22">
+        <v>-12.14954926789374</v>
+      </c>
+      <c r="G22">
         <v>-28.06201020739633</v>
       </c>
-      <c r="E22">
-        <v>-9.423093851153336</v>
-      </c>
-      <c r="F22">
-        <v>-10.77632824525644</v>
-      </c>
-      <c r="G22">
+      <c r="H22">
+        <v>-9.423093851153334</v>
+      </c>
+      <c r="I22">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J22">
         <v>-17.64651469076167</v>
       </c>
-      <c r="H22">
-        <v>-17.75096456111885</v>
-      </c>
-      <c r="I22">
-        <v>-29.29982703040818</v>
-      </c>
-      <c r="J22">
-        <v>-11.61472113882077</v>
-      </c>
       <c r="K22">
-        <v>-12.96872349662359</v>
+        <v>-31.15393069110296</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1347,34 +1452,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-34.53877639491068</v>
+        <v>-28.72783147671842</v>
       </c>
       <c r="C23">
-        <v>-23.21566589872307</v>
+        <v>-21.0005247091679</v>
       </c>
       <c r="D23">
-        <v>-34.53877639491068</v>
+        <v>-24.51485905072881</v>
       </c>
       <c r="E23">
+        <v>-23.037292337092</v>
+      </c>
+      <c r="F23">
+        <v>-16.54083036939494</v>
+      </c>
+      <c r="G23">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H23">
         <v>-4.976829674725393</v>
       </c>
-      <c r="F23">
-        <v>-21.0005247091679</v>
-      </c>
-      <c r="G23">
+      <c r="I23">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J23">
         <v>-13.81452614556825</v>
       </c>
-      <c r="H23">
-        <v>-19.14634673748886</v>
-      </c>
-      <c r="I23">
-        <v>-29.30892596853765</v>
-      </c>
-      <c r="J23">
-        <v>-5.859733895792575</v>
-      </c>
       <c r="K23">
-        <v>-16.6573996218846</v>
+        <v>-29.66189696142899</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1382,34 +1487,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-34.53877639491068</v>
+        <v>-31.78864252024516</v>
       </c>
       <c r="C24">
-        <v>-24.37534052911775</v>
+        <v>-16.02357745624637</v>
       </c>
       <c r="D24">
-        <v>-34.53877639491068</v>
+        <v>-24.56701283289639</v>
       </c>
       <c r="E24">
+        <v>-23.97704503387317</v>
+      </c>
+      <c r="F24">
+        <v>-14.37360526261319</v>
+      </c>
+      <c r="G24">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H24">
         <v>-4.913309352455275</v>
       </c>
-      <c r="F24">
-        <v>-16.02357745624637</v>
-      </c>
-      <c r="G24">
+      <c r="I24">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J24">
         <v>-16.9740899194627</v>
       </c>
-      <c r="H24">
-        <v>-19.19375926673211</v>
-      </c>
-      <c r="I24">
-        <v>-32.06365590771171</v>
-      </c>
-      <c r="J24">
-        <v>-9.788801027887343</v>
-      </c>
       <c r="K24">
-        <v>-14.83693053218793</v>
+        <v>-30.68054399567578</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1417,34 +1522,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-34.53877639491068</v>
+        <v>-28.90685390852108</v>
       </c>
       <c r="C25">
-        <v>-24.97173432728088</v>
+        <v>-10.58714315907528</v>
       </c>
       <c r="D25">
+        <v>-23.22844054019401</v>
+      </c>
+      <c r="E25">
+        <v>-24.99291442318128</v>
+      </c>
+      <c r="F25">
+        <v>-11.10257656620198</v>
+      </c>
+      <c r="G25">
         <v>-28.02957680258425</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>-4.223941864791702</v>
       </c>
-      <c r="F25">
-        <v>-10.58714315907528</v>
-      </c>
-      <c r="G25">
+      <c r="I25">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J25">
         <v>-30.55743641876069</v>
       </c>
-      <c r="H25">
-        <v>-17.97687536427541</v>
-      </c>
-      <c r="I25">
-        <v>-29.47004615716004</v>
-      </c>
-      <c r="J25">
-        <v>-19.73531509113474</v>
-      </c>
       <c r="K25">
-        <v>-12.08926642720251</v>
+        <v>-33.25926986392511</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1452,34 +1557,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-34.53877639491068</v>
+        <v>-22.90714812061184</v>
       </c>
       <c r="C26">
-        <v>-23.86106982898903</v>
+        <v>-20.58463640083592</v>
       </c>
       <c r="D26">
-        <v>-34.53877639491068</v>
+        <v>-27.2380566552509</v>
       </c>
       <c r="E26">
+        <v>-24.03032849622285</v>
+      </c>
+      <c r="F26">
+        <v>-11.33311957590451</v>
+      </c>
+      <c r="G26">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H26">
         <v>-0.6889378184261071</v>
       </c>
-      <c r="F26">
-        <v>-20.58463640083592</v>
-      </c>
-      <c r="G26">
+      <c r="I26">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J26">
         <v>-21.08148980046719</v>
       </c>
-      <c r="H26">
-        <v>-21.62198092341803</v>
-      </c>
-      <c r="I26">
-        <v>-24.07031094804172</v>
-      </c>
-      <c r="J26">
-        <v>-14.12080636575256</v>
-      </c>
       <c r="K26">
-        <v>-12.28292255535264</v>
+        <v>-31.80365649067787</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1487,34 +1592,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-34.53877639491068</v>
+        <v>-29.09963181245298</v>
       </c>
       <c r="C27">
-        <v>-25.53402525486145</v>
+        <v>-17.48136283663616</v>
       </c>
       <c r="D27">
+        <v>-25.80224957623582</v>
+      </c>
+      <c r="E27">
+        <v>-25.30196906457296</v>
+      </c>
+      <c r="F27">
+        <v>-13.54859299248151</v>
+      </c>
+      <c r="G27">
         <v>-28.14508566748267</v>
       </c>
-      <c r="E27">
-        <v>-4.079358436843283</v>
-      </c>
-      <c r="F27">
-        <v>-17.48136283663616</v>
-      </c>
-      <c r="G27">
+      <c r="H27">
+        <v>-4.079358436843285</v>
+      </c>
+      <c r="I27">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J27">
         <v>-23.45487140255449</v>
       </c>
-      <c r="H27">
-        <v>-20.31670176067705</v>
-      </c>
-      <c r="I27">
-        <v>-29.64354627069874</v>
-      </c>
-      <c r="J27">
-        <v>-9.147216713866717</v>
-      </c>
       <c r="K27">
-        <v>-14.14392022527733</v>
+        <v>-30.51420732167043</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1522,34 +1627,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-34.53877639491068</v>
+        <v>-26.31893295932165</v>
       </c>
       <c r="C28">
-        <v>-24.68565291938027</v>
+        <v>-4.358203587316273</v>
       </c>
       <c r="D28">
+        <v>-16.39702976821831</v>
+      </c>
+      <c r="E28">
+        <v>-24.30500644442021</v>
+      </c>
+      <c r="F28">
+        <v>-15.13457061161619</v>
+      </c>
+      <c r="G28">
         <v>-20.63244241979865</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>-4.572019838164752</v>
       </c>
-      <c r="F28">
-        <v>-4.358203587316273</v>
-      </c>
-      <c r="G28">
+      <c r="I28">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J28">
         <v>-21.91563442658595</v>
       </c>
-      <c r="H28">
-        <v>-11.76650193520658</v>
-      </c>
-      <c r="I28">
-        <v>-27.14091730288055</v>
-      </c>
-      <c r="J28">
-        <v>-9.98580012179119</v>
-      </c>
       <c r="K28">
-        <v>-15.47614142535045</v>
+        <v>-30.73161783483604</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,34 +1662,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-34.53877639491068</v>
+        <v>-26.29688861714481</v>
       </c>
       <c r="C29">
-        <v>-24.18143589068165</v>
+        <v>-3.716993251140944</v>
       </c>
       <c r="D29">
+        <v>-20.07740168444716</v>
+      </c>
+      <c r="E29">
+        <v>-23.84594914528668</v>
+      </c>
+      <c r="F29">
+        <v>-15.7365829709927</v>
+      </c>
+      <c r="G29">
         <v>-15.54658902763584</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>-9.173552952518351</v>
       </c>
-      <c r="F29">
-        <v>-3.716993251140944</v>
-      </c>
-      <c r="G29">
+      <c r="I29">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J29">
         <v>-13.618574399881</v>
       </c>
-      <c r="H29">
-        <v>-15.11229458632372</v>
-      </c>
-      <c r="I29">
-        <v>-27.1210773949214</v>
-      </c>
-      <c r="J29">
-        <v>-7.343581722386349</v>
-      </c>
       <c r="K29">
-        <v>-15.00204723630213</v>
+        <v>-30.04659824980515</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1592,34 +1697,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-34.53877639491068</v>
+        <v>-28.4801977114753</v>
       </c>
       <c r="C30">
-        <v>-23.7232494796552</v>
+        <v>-10.56535813041743</v>
       </c>
       <c r="D30">
+        <v>-22.06303234984206</v>
+      </c>
+      <c r="E30">
+        <v>-23.63941951536841</v>
+      </c>
+      <c r="F30">
+        <v>-14.98845130995627</v>
+      </c>
+      <c r="G30">
         <v>-27.89616217118549</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>-5.149002845178928</v>
       </c>
-      <c r="F30">
-        <v>-10.56535813041743</v>
-      </c>
-      <c r="G30">
+      <c r="I30">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J30">
         <v>-17.64195205315588</v>
       </c>
-      <c r="H30">
-        <v>-16.91741337304635</v>
-      </c>
-      <c r="I30">
-        <v>-29.08605557981883</v>
-      </c>
-      <c r="J30">
-        <v>-6.167868233382336</v>
-      </c>
       <c r="K30">
-        <v>-15.35340121195612</v>
+        <v>-29.74178364154485</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1627,34 +1732,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-34.53877639491068</v>
+        <v>-22.04649515347157</v>
       </c>
       <c r="C31">
-        <v>-22.44430868194232</v>
+        <v>-3.320607027933335</v>
       </c>
       <c r="D31">
+        <v>-18.42192464187883</v>
+      </c>
+      <c r="E31">
+        <v>-22.29018932108131</v>
+      </c>
+      <c r="F31">
+        <v>-12.38793466422367</v>
+      </c>
+      <c r="G31">
         <v>-19.58982917605229</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>-9.757732727889779</v>
       </c>
-      <c r="F31">
-        <v>-3.320607027933335</v>
-      </c>
-      <c r="G31">
+      <c r="I31">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J31">
         <v>-16.41493846546031</v>
       </c>
-      <c r="H31">
-        <v>-13.60731545671615</v>
-      </c>
-      <c r="I31">
-        <v>-23.29572327761548</v>
-      </c>
-      <c r="J31">
-        <v>-10.59082281146681</v>
-      </c>
       <c r="K31">
-        <v>-13.16896722954074</v>
+        <v>-30.88847556919638</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1662,34 +1767,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-34.53877639491068</v>
+        <v>-28.97916874400702</v>
       </c>
       <c r="C32">
-        <v>-22.80048088455822</v>
+        <v>-2.246250754673435</v>
       </c>
       <c r="D32">
+        <v>-18.50882865577264</v>
+      </c>
+      <c r="E32">
+        <v>-22.66614234675228</v>
+      </c>
+      <c r="F32">
+        <v>-13.68463224819796</v>
+      </c>
+      <c r="G32">
         <v>-19.42222084018593</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>-9.937769098568303</v>
       </c>
-      <c r="F32">
-        <v>-2.246250754673435</v>
-      </c>
-      <c r="G32">
+      <c r="I32">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J32">
         <v>-12.88999246582818</v>
       </c>
-      <c r="H32">
-        <v>-13.68631910571052</v>
-      </c>
-      <c r="I32">
-        <v>-29.53512950909738</v>
-      </c>
-      <c r="J32">
-        <v>-10.86306684900052</v>
-      </c>
       <c r="K32">
-        <v>-14.25819320007914</v>
+        <v>-30.95905735670512</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1697,34 +1802,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-34.53877639491068</v>
+        <v>-29.06971378348181</v>
       </c>
       <c r="C33">
-        <v>-24.6811457699744</v>
+        <v>-1.55852220532707</v>
       </c>
       <c r="D33">
+        <v>-19.44877057587614</v>
+      </c>
+      <c r="E33">
+        <v>-24.38161232148907</v>
+      </c>
+      <c r="F33">
+        <v>-12.10480357042761</v>
+      </c>
+      <c r="G33">
         <v>-18.76642429164083</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>-1.55852220532707</v>
-      </c>
-      <c r="G33">
-        <v>-21.83346747564641</v>
-      </c>
-      <c r="H33">
-        <v>-14.54081176035007</v>
-      </c>
       <c r="I33">
-        <v>-29.6166200446247</v>
+        <v>-34.53877639491068</v>
       </c>
       <c r="J33">
-        <v>-19.65732903736873</v>
+        <v>-21.8334674756464</v>
       </c>
       <c r="K33">
-        <v>-12.93113711075205</v>
+        <v>-33.23905125739317</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1732,34 +1837,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-34.53877639491068</v>
+        <v>-31.66197006804129</v>
       </c>
       <c r="C34">
-        <v>-24.43399788234787</v>
+        <v>-16.9088323769603</v>
       </c>
       <c r="D34">
+        <v>-25.89445123252032</v>
+      </c>
+      <c r="E34">
+        <v>-24.42333165343259</v>
+      </c>
+      <c r="F34">
+        <v>-13.52739721105573</v>
+      </c>
+      <c r="G34">
         <v>-28.13788267756703</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>-4.199684960211719</v>
       </c>
-      <c r="F34">
-        <v>-16.9088323769603</v>
-      </c>
-      <c r="G34">
+      <c r="I34">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J34">
         <v>-19.92498833178874</v>
       </c>
-      <c r="H34">
-        <v>-20.40052144820841</v>
-      </c>
-      <c r="I34">
-        <v>-31.94965070072823</v>
-      </c>
-      <c r="J34">
-        <v>-15.9791721742892</v>
-      </c>
       <c r="K34">
-        <v>-14.12611576887967</v>
+        <v>-32.28545503363181</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1767,34 +1872,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-34.53877639491068</v>
+        <v>-28.78545332369355</v>
       </c>
       <c r="C35">
-        <v>-23.20013185377708</v>
+        <v>-8.776269454107403</v>
       </c>
       <c r="D35">
+        <v>-18.16838759630884</v>
+      </c>
+      <c r="E35">
+        <v>-23.02486322995442</v>
+      </c>
+      <c r="F35">
+        <v>-15.56502036207092</v>
+      </c>
+      <c r="G35">
         <v>-26.94095031389441</v>
       </c>
-      <c r="E35">
-        <v>-5.677093359955211</v>
-      </c>
-      <c r="F35">
-        <v>-8.776269454107403</v>
-      </c>
-      <c r="G35">
+      <c r="H35">
+        <v>-5.677093359955212</v>
+      </c>
+      <c r="I35">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J35">
         <v>-12.19447713418127</v>
       </c>
-      <c r="H35">
-        <v>-13.3768272334707</v>
-      </c>
-      <c r="I35">
-        <v>-29.36078563081526</v>
-      </c>
-      <c r="J35">
-        <v>-6.001891914452285</v>
-      </c>
       <c r="K35">
-        <v>-15.83771921573243</v>
+        <v>-29.69875274404447</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1802,34 +1907,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-34.53877639491068</v>
+        <v>-31.80942843401294</v>
       </c>
       <c r="C36">
-        <v>-25.81030172946665</v>
+        <v>-17.64046201661346</v>
       </c>
       <c r="D36">
-        <v>-34.53877639491068</v>
+        <v>-25.89431873416112</v>
       </c>
       <c r="E36">
+        <v>-25.59795625575285</v>
+      </c>
+      <c r="F36">
+        <v>-13.57498345485924</v>
+      </c>
+      <c r="G36">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>-17.64046201661346</v>
-      </c>
-      <c r="G36">
+      <c r="I36">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J36">
         <v>-23.35924166124374</v>
       </c>
-      <c r="H36">
-        <v>-20.40040099515459</v>
-      </c>
-      <c r="I36">
-        <v>-32.08236323010271</v>
-      </c>
-      <c r="J36">
-        <v>-15.97060946687816</v>
-      </c>
       <c r="K36">
-        <v>-14.16608821367462</v>
+        <v>-32.28323507245118</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1837,34 +1942,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-34.53877639491068</v>
+        <v>-29.00336400782538</v>
       </c>
       <c r="C37">
-        <v>-23.84826019928964</v>
+        <v>-11.06940600018686</v>
       </c>
       <c r="D37">
+        <v>-22.2723522497568</v>
+      </c>
+      <c r="E37">
+        <v>-24.10200153168975</v>
+      </c>
+      <c r="F37">
+        <v>-16.17883691084084</v>
+      </c>
+      <c r="G37">
         <v>-28.39808085700836</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>-5.279862715946088</v>
       </c>
-      <c r="F37">
-        <v>-11.06940600018686</v>
-      </c>
-      <c r="G37">
+      <c r="I37">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J37">
         <v>-16.88916551166024</v>
       </c>
-      <c r="H37">
-        <v>-17.10770419115067</v>
-      </c>
-      <c r="I37">
-        <v>-29.5569052465339</v>
-      </c>
-      <c r="J37">
-        <v>-11.68913099766654</v>
-      </c>
       <c r="K37">
-        <v>-16.35332511669916</v>
+        <v>-31.1732221359889</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1872,34 +1977,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-34.53877639491068</v>
+        <v>-22.71707039950706</v>
       </c>
       <c r="C38">
-        <v>-24.32771317925871</v>
+        <v>-21.04515341943038</v>
       </c>
       <c r="D38">
-        <v>-34.53877639491068</v>
+        <v>-27.85657377549915</v>
       </c>
       <c r="E38">
-        <v>-9.345018754907855</v>
+        <v>-24.29729034988483</v>
       </c>
       <c r="F38">
-        <v>-21.04515341943038</v>
+        <v>-11.26504125041208</v>
       </c>
       <c r="G38">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H38">
+        <v>-9.345018754907857</v>
+      </c>
+      <c r="I38">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J38">
         <v>-12.94630894256093</v>
       </c>
-      <c r="H38">
-        <v>-22.1842692145528</v>
-      </c>
-      <c r="I38">
-        <v>-23.89924099904743</v>
-      </c>
-      <c r="J38">
-        <v>-11.25717523316782</v>
-      </c>
       <c r="K38">
-        <v>-12.22573676193901</v>
+        <v>-31.0612336044522</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1907,34 +2012,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-34.53877639491068</v>
+        <v>-28.71619767331518</v>
       </c>
       <c r="C39">
-        <v>-23.94700426914044</v>
+        <v>-17.36523211766534</v>
       </c>
       <c r="D39">
+        <v>-25.77286371636966</v>
+      </c>
+      <c r="E39">
+        <v>-23.91763209960979</v>
+      </c>
+      <c r="F39">
+        <v>-13.36758822080387</v>
+      </c>
+      <c r="G39">
         <v>-28.12570186919869</v>
       </c>
-      <c r="E39">
-        <v>-4.587350046623938</v>
-      </c>
-      <c r="F39">
-        <v>-17.36523211766534</v>
-      </c>
-      <c r="G39">
+      <c r="H39">
+        <v>-4.587350046623939</v>
+      </c>
+      <c r="I39">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J39">
         <v>-15.25740859518473</v>
       </c>
-      <c r="H39">
-        <v>-20.2899873426169</v>
-      </c>
-      <c r="I39">
-        <v>-29.29845554547473</v>
-      </c>
-      <c r="J39">
-        <v>-12.12580064418701</v>
-      </c>
       <c r="K39">
-        <v>-12.96578429295419</v>
+        <v>-31.2864327850868</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1942,34 +2047,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-34.53877639491068</v>
+        <v>-31.73470110627669</v>
       </c>
       <c r="C40">
-        <v>-24.01225286017632</v>
+        <v>-2.22835902809585</v>
       </c>
       <c r="D40">
+        <v>-18.55710948303282</v>
+      </c>
+      <c r="E40">
+        <v>-23.92329798071304</v>
+      </c>
+      <c r="F40">
+        <v>-14.68142922300797</v>
+      </c>
+      <c r="G40">
         <v>-19.46956223164685</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>-2.228359028095851</v>
-      </c>
-      <c r="G40">
+      <c r="I40">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J40">
         <v>-19.19297623960455</v>
       </c>
-      <c r="H40">
-        <v>-13.73021076685614</v>
-      </c>
-      <c r="I40">
-        <v>-32.01510863514009</v>
-      </c>
-      <c r="J40">
-        <v>-11.88396608814211</v>
-      </c>
       <c r="K40">
-        <v>-15.09550265891955</v>
+        <v>-31.22373493722331</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1977,34 +2082,34 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>-31.85894405186937</v>
+      </c>
+      <c r="C41">
+        <v>-0.1653701143219809</v>
+      </c>
+      <c r="D41">
+        <v>-19.32522094573568</v>
+      </c>
+      <c r="E41">
+        <v>-24.41620507527004</v>
+      </c>
+      <c r="F41">
+        <v>-15.67979585024355</v>
+      </c>
+      <c r="G41">
+        <v>-21.64254263445181</v>
+      </c>
+      <c r="H41">
+        <v>-9.426035352218554</v>
+      </c>
+      <c r="I41">
         <v>-26.49927936578675</v>
       </c>
-      <c r="C41">
-        <v>-24.81738408867803</v>
-      </c>
-      <c r="D41">
-        <v>-21.64254263445181</v>
-      </c>
-      <c r="E41">
-        <v>-9.426035352218554</v>
-      </c>
-      <c r="F41">
-        <v>-0.1653701143219806</v>
-      </c>
-      <c r="G41">
+      <c r="J41">
         <v>-18.36158344209102</v>
       </c>
-      <c r="H41">
-        <v>-14.42849391476783</v>
-      </c>
-      <c r="I41">
-        <v>-32.1269272861735</v>
-      </c>
-      <c r="J41">
-        <v>-10.78280784230097</v>
-      </c>
       <c r="K41">
-        <v>-15.93413062579744</v>
+        <v>-30.93824946607931</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2015,31 +2120,31 @@
         <v>-34.53877639491068</v>
       </c>
       <c r="C42">
-        <v>-25.44254840663036</v>
+        <v>4.652200351059391</v>
       </c>
       <c r="D42">
+        <v>-19.04510600050518</v>
+      </c>
+      <c r="E42">
+        <v>-25.47733706329869</v>
+      </c>
+      <c r="F42">
+        <v>-14.75562658577005</v>
+      </c>
+      <c r="G42">
         <v>-19.37865324640968</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>-3.929006831810744</v>
       </c>
-      <c r="F42">
-        <v>4.65220035105939</v>
-      </c>
-      <c r="G42">
+      <c r="I42">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J42">
         <v>-26.95464626451615</v>
       </c>
-      <c r="H42">
-        <v>-14.17384396455828</v>
-      </c>
-      <c r="I42">
-        <v>-34.53877639491068</v>
-      </c>
-      <c r="J42">
-        <v>-16.12417857202926</v>
-      </c>
       <c r="K42">
-        <v>-15.1578284436397</v>
+        <v>-32.32304928489776</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2047,34 +2152,34 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-34.53877639491068</v>
+        <v>-31.75930612676998</v>
       </c>
       <c r="C43">
-        <v>-24.82299365467823</v>
+        <v>0.7857438785015859</v>
       </c>
       <c r="D43">
+        <v>-19.16572783901256</v>
+      </c>
+      <c r="E43">
+        <v>-24.74637336299394</v>
+      </c>
+      <c r="F43">
+        <v>-14.47471883367799</v>
+      </c>
+      <c r="G43">
         <v>-21.01319226169085</v>
       </c>
-      <c r="E43">
-        <v>-4.485392066356733</v>
-      </c>
-      <c r="F43">
-        <v>0.7857438785015859</v>
-      </c>
-      <c r="G43">
+      <c r="H43">
+        <v>-4.485392066356734</v>
+      </c>
+      <c r="I43">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J43">
         <v>-22.50143971302299</v>
       </c>
-      <c r="H43">
-        <v>-14.28350018138318</v>
-      </c>
-      <c r="I43">
-        <v>-29.34113889735306</v>
-      </c>
-      <c r="J43">
-        <v>-10.47489406237314</v>
-      </c>
       <c r="K43">
-        <v>-13.84342022938997</v>
+        <v>-30.85841996757951</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2082,34 +2187,34 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>-34.53877639491068</v>
+        <v>-31.89033151176648</v>
       </c>
       <c r="C44">
-        <v>-24.69202655760912</v>
+        <v>2.472528696312742</v>
       </c>
       <c r="D44">
+        <v>-18.65831562196161</v>
+      </c>
+      <c r="E44">
+        <v>-24.59588028835866</v>
+      </c>
+      <c r="F44">
+        <v>-13.5562304624112</v>
+      </c>
+      <c r="G44">
         <v>-19.72474677119105</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>-3.857142794630391</v>
       </c>
-      <c r="F44">
-        <v>2.472528696312742</v>
-      </c>
-      <c r="G44">
+      <c r="I44">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J44">
         <v>-23.49985940329708</v>
       </c>
-      <c r="H44">
-        <v>-13.82221634770049</v>
-      </c>
-      <c r="I44">
-        <v>-32.15517600008091</v>
-      </c>
-      <c r="J44">
-        <v>-15.37738298220336</v>
-      </c>
       <c r="K44">
-        <v>-14.15033570001826</v>
+        <v>-32.12943561346141</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2117,34 +2222,34 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-34.53877639491068</v>
+        <v>-31.4653358402104</v>
       </c>
       <c r="C45">
-        <v>-23.47673172869571</v>
+        <v>1.689950359104562</v>
       </c>
       <c r="D45">
+        <v>-18.73833065942868</v>
+      </c>
+      <c r="E45">
+        <v>-23.68705990217053</v>
+      </c>
+      <c r="F45">
+        <v>-12.03249405705653</v>
+      </c>
+      <c r="G45">
         <v>-20.42241699661557</v>
       </c>
-      <c r="E45">
-        <v>-5.247833828992711</v>
-      </c>
-      <c r="F45">
-        <v>1.689950359104562</v>
-      </c>
-      <c r="G45">
+      <c r="H45">
+        <v>-5.247833828992712</v>
+      </c>
+      <c r="I45">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J45">
         <v>-16.63916803937671</v>
       </c>
-      <c r="H45">
-        <v>-13.89495729085237</v>
-      </c>
-      <c r="I45">
-        <v>-31.77267989568043</v>
-      </c>
-      <c r="J45">
-        <v>-14.01803021677676</v>
-      </c>
       <c r="K45">
-        <v>-12.87039711952034</v>
+        <v>-31.77701082242488</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2152,34 +2257,34 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>-34.53877639491068</v>
+        <v>-28.97409155217106</v>
       </c>
       <c r="C46">
-        <v>-24.63140642779806</v>
+        <v>-20.72326583694641</v>
       </c>
       <c r="D46">
-        <v>-34.53877639491068</v>
+        <v>-24.27075493439294</v>
       </c>
       <c r="E46">
+        <v>-24.2664615821026</v>
+      </c>
+      <c r="F46">
+        <v>-15.15664783605405</v>
+      </c>
+      <c r="G46">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H46">
         <v>-10.15480128802901</v>
       </c>
-      <c r="F46">
-        <v>-20.72326583694641</v>
-      </c>
-      <c r="G46">
+      <c r="I46">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J46">
         <v>-16.38721711779694</v>
       </c>
-      <c r="H46">
-        <v>-18.92443390445625</v>
-      </c>
-      <c r="I46">
-        <v>-29.53056003644502</v>
-      </c>
-      <c r="J46">
-        <v>-5.948938692830239</v>
-      </c>
       <c r="K46">
-        <v>-15.49468629387826</v>
+        <v>-29.68502413103135</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2187,34 +2292,34 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-34.53877639491068</v>
+        <v>-31.79897078890719</v>
       </c>
       <c r="C47">
-        <v>-24.18357472517</v>
+        <v>-27.61295730096422</v>
       </c>
       <c r="D47">
-        <v>-34.53877639491068</v>
+        <v>-28.239181734161</v>
       </c>
       <c r="E47">
-        <v>-5.021753521280456</v>
+        <v>-24.16196093877643</v>
       </c>
       <c r="F47">
-        <v>-27.61295730096422</v>
+        <v>-17.39323689441654</v>
       </c>
       <c r="G47">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H47">
+        <v>-5.021753521280458</v>
+      </c>
+      <c r="I47">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J47">
         <v>-14.6273287806891</v>
       </c>
-      <c r="H47">
-        <v>-22.53209463151812</v>
-      </c>
-      <c r="I47">
-        <v>-32.07295134950753</v>
-      </c>
-      <c r="J47">
-        <v>-7.948526962575416</v>
-      </c>
       <c r="K47">
-        <v>-18.42412863756073</v>
+        <v>-30.20343590466898</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2222,34 +2327,34 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>-34.53877639491068</v>
+        <v>-28.9694132466223</v>
       </c>
       <c r="C48">
-        <v>-22.96814944650747</v>
+        <v>-5.624366722625787</v>
       </c>
       <c r="D48">
+        <v>-16.54470497737448</v>
+      </c>
+      <c r="E48">
+        <v>-23.07072403165946</v>
+      </c>
+      <c r="F48">
+        <v>-17.09766925053447</v>
+      </c>
+      <c r="G48">
         <v>-21.88000290532148</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>-5.153289004001937</v>
       </c>
-      <c r="F48">
-        <v>-5.624366722625786</v>
-      </c>
-      <c r="G48">
+      <c r="I48">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J48">
         <v>-13.45135217142813</v>
       </c>
-      <c r="H48">
-        <v>-11.90075212534855</v>
-      </c>
-      <c r="I48">
-        <v>-29.52634956145114</v>
-      </c>
-      <c r="J48">
-        <v>-2.598056269551836</v>
-      </c>
       <c r="K48">
-        <v>-17.12514428204181</v>
+        <v>-28.81627683610731</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2257,34 +2362,34 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-34.53877639491068</v>
+        <v>-26.0658164605261</v>
       </c>
       <c r="C49">
-        <v>-24.42189568333827</v>
+        <v>-12.46604161466741</v>
       </c>
       <c r="D49">
+        <v>-23.36696890677377</v>
+      </c>
+      <c r="E49">
+        <v>-24.41261155076635</v>
+      </c>
+      <c r="F49">
+        <v>-12.3233350257874</v>
+      </c>
+      <c r="G49">
         <v>-28.1357382361853</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>-4.231501513931536</v>
       </c>
-      <c r="F49">
-        <v>-12.46604161466741</v>
-      </c>
-      <c r="G49">
+      <c r="I49">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J49">
         <v>-23.64497076498384</v>
       </c>
-      <c r="H49">
-        <v>-18.10281024298427</v>
-      </c>
-      <c r="I49">
-        <v>-26.91311245396456</v>
-      </c>
-      <c r="J49">
-        <v>-9.250614100851195</v>
-      </c>
       <c r="K49">
-        <v>-13.11470353325427</v>
+        <v>-30.54101405162937</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2292,34 +2397,34 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-34.53877639491068</v>
+        <v>-26.00507822082393</v>
       </c>
       <c r="C50">
-        <v>-23.82657462784232</v>
+        <v>-0.9319704056656739</v>
       </c>
       <c r="D50">
+        <v>-15.55755803845752</v>
+      </c>
+      <c r="E50">
+        <v>-23.43476281610292</v>
+      </c>
+      <c r="F50">
+        <v>-16.44770836327244</v>
+      </c>
+      <c r="G50">
         <v>-18.65604041476299</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>-4.907349300686501</v>
       </c>
-      <c r="F50">
-        <v>-0.9319704056656739</v>
-      </c>
-      <c r="G50">
+      <c r="I50">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J50">
         <v>-13.89671070559563</v>
       </c>
-      <c r="H50">
-        <v>-11.00334581724223</v>
-      </c>
-      <c r="I50">
-        <v>-26.8584480382326</v>
-      </c>
-      <c r="J50">
-        <v>-10.6273052558382</v>
-      </c>
       <c r="K50">
-        <v>-16.5791771367417</v>
+        <v>-30.89793398070007</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2330,31 +2435,31 @@
         <v>-34.53877639491068</v>
       </c>
       <c r="C51">
-        <v>-24.72392929974166</v>
+        <v>-17.20478455114121</v>
       </c>
       <c r="D51">
+        <v>-23.38907057892204</v>
+      </c>
+      <c r="E51">
+        <v>-24.72436395112185</v>
+      </c>
+      <c r="F51">
+        <v>-15.95962873490437</v>
+      </c>
+      <c r="G51">
         <v>-28.09464599068927</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>0</v>
       </c>
-      <c r="F51">
-        <v>-17.20478455114121</v>
-      </c>
-      <c r="G51">
+      <c r="I51">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J51">
         <v>-23.4293761638491</v>
       </c>
-      <c r="H51">
-        <v>-18.12290267220997</v>
-      </c>
-      <c r="I51">
-        <v>-34.53877639491068</v>
-      </c>
-      <c r="J51">
-        <v>-12.61037548795386</v>
-      </c>
       <c r="K51">
-        <v>-16.16919024891251</v>
+        <v>-31.41206330013747</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2362,34 +2467,34 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>-34.53877639491068</v>
+        <v>-26.11587006074534</v>
       </c>
       <c r="C52">
-        <v>-24.8850492572322</v>
+        <v>-5.010271564299766</v>
       </c>
       <c r="D52">
+        <v>-19.66488151717394</v>
+      </c>
+      <c r="E52">
+        <v>-24.59396013292481</v>
+      </c>
+      <c r="F52">
+        <v>-14.80647613958027</v>
+      </c>
+      <c r="G52">
         <v>-19.9596245786159</v>
       </c>
-      <c r="E52">
-        <v>-4.034894620954939</v>
-      </c>
-      <c r="F52">
-        <v>-5.010271564299766</v>
-      </c>
-      <c r="G52">
+      <c r="H52">
+        <v>-4.034894620954938</v>
+      </c>
+      <c r="I52">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J52">
         <v>-23.39543616851027</v>
       </c>
-      <c r="H52">
-        <v>-14.73727625243897</v>
-      </c>
-      <c r="I52">
-        <v>-26.95816069416187</v>
-      </c>
-      <c r="J52">
-        <v>-8.95247756037149</v>
-      </c>
       <c r="K52">
-        <v>-15.20054206884028</v>
+        <v>-30.46371939298648</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2397,34 +2502,34 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>-34.53877639491068</v>
+        <v>-26.06331208049556</v>
       </c>
       <c r="C53">
-        <v>-23.8474951872172</v>
+        <v>-5.57935322858584</v>
       </c>
       <c r="D53">
+        <v>-19.48092033885667</v>
+      </c>
+      <c r="E53">
+        <v>-23.75040713130604</v>
+      </c>
+      <c r="F53">
+        <v>-16.86031808881463</v>
+      </c>
+      <c r="G53">
         <v>-21.63369783220735</v>
       </c>
-      <c r="E53">
-        <v>-5.440789467711455</v>
-      </c>
-      <c r="F53">
-        <v>-5.579353228585841</v>
-      </c>
-      <c r="G53">
+      <c r="H53">
+        <v>-5.440789467711454</v>
+      </c>
+      <c r="I53">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J53">
         <v>-17.48289346185091</v>
       </c>
-      <c r="H53">
-        <v>-14.57003881760509</v>
-      </c>
-      <c r="I53">
-        <v>-26.91085851193707</v>
-      </c>
-      <c r="J53">
-        <v>-9.590651080130518</v>
-      </c>
       <c r="K53">
-        <v>-16.92576930619714</v>
+        <v>-30.62917178699808</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2432,34 +2537,34 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>-34.53877639491068</v>
+        <v>-22.65520960324789</v>
       </c>
       <c r="C54">
-        <v>-23.50676719848704</v>
+        <v>-4.630135802569301</v>
       </c>
       <c r="D54">
+        <v>-19.67713230191407</v>
+      </c>
+      <c r="E54">
+        <v>-23.70576650835268</v>
+      </c>
+      <c r="F54">
+        <v>-13.68203377912246</v>
+      </c>
+      <c r="G54">
         <v>-21.13764995256811</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>-5.646117866798825</v>
       </c>
-      <c r="F54">
-        <v>-4.630135802569301</v>
-      </c>
-      <c r="G54">
+      <c r="I54">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J54">
         <v>-21.26345530343162</v>
       </c>
-      <c r="H54">
-        <v>-17.02744832341135</v>
-      </c>
-      <c r="I54">
-        <v>-23.84356628241417</v>
-      </c>
-      <c r="J54">
-        <v>-14.45869810090077</v>
-      </c>
       <c r="K54">
-        <v>-14.25601048605572</v>
+        <v>-30.96276231337204</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2467,34 +2572,34 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>-34.53877639491068</v>
+        <v>-26.39927789438863</v>
       </c>
       <c r="C55">
-        <v>-24.96079188821356</v>
+        <v>-9.144683435932473</v>
       </c>
       <c r="D55">
+        <v>-23.45930686778024</v>
+      </c>
+      <c r="E55">
+        <v>-24.68777009364868</v>
+      </c>
+      <c r="F55">
+        <v>-14.81710202297537</v>
+      </c>
+      <c r="G55">
         <v>-28.17912995329959</v>
       </c>
-      <c r="E55">
-        <v>-0.2986265781996404</v>
-      </c>
-      <c r="F55">
-        <v>-9.144683435932473</v>
-      </c>
-      <c r="G55">
+      <c r="H55">
+        <v>-0.2986265781996416</v>
+      </c>
+      <c r="I55">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J55">
         <v>-23.68684257980111</v>
       </c>
-      <c r="H55">
-        <v>-18.18675384389925</v>
-      </c>
-      <c r="I55">
-        <v>-27.21322774444083</v>
-      </c>
-      <c r="J55">
-        <v>-12.70674434030253</v>
-      </c>
       <c r="K55">
-        <v>-15.20946781089216</v>
+        <v>-31.43704781741305</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2502,34 +2607,34 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>-34.53877639491068</v>
+        <v>-31.79102174512737</v>
       </c>
       <c r="C56">
-        <v>-24.67316299858694</v>
+        <v>-1.867132076954482</v>
       </c>
       <c r="D56">
+        <v>-18.6559988999084</v>
+      </c>
+      <c r="E56">
+        <v>-24.31044890286671</v>
+      </c>
+      <c r="F56">
+        <v>-14.81710202297615</v>
+      </c>
+      <c r="G56">
         <v>-19.80775112942269</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>-4.121631974674966</v>
       </c>
-      <c r="F56">
-        <v>-1.867132076954482</v>
-      </c>
-      <c r="G56">
+      <c r="I56">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J56">
         <v>-23.75147191146298</v>
       </c>
-      <c r="H56">
-        <v>-13.82011023674303</v>
-      </c>
-      <c r="I56">
-        <v>-32.0657972101057</v>
-      </c>
-      <c r="J56">
-        <v>-18.97314702163121</v>
-      </c>
       <c r="K56">
-        <v>-15.20946781089282</v>
+        <v>-33.06167073479455</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2537,34 +2642,1259 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>-34.53877639491068</v>
+        <v>-28.9440639583134</v>
       </c>
       <c r="C57">
-        <v>-24.25343646524441</v>
+        <v>-1.50108206492022</v>
       </c>
       <c r="D57">
+        <v>-18.72371011185333</v>
+      </c>
+      <c r="E57">
+        <v>-24.20041017441788</v>
+      </c>
+      <c r="F57">
+        <v>-13.65053376504475</v>
+      </c>
+      <c r="G57">
         <v>-18.78216971848586</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>-4.80916401085521</v>
       </c>
-      <c r="F57">
-        <v>-1.50108206492022</v>
-      </c>
-      <c r="G57">
+      <c r="I57">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J57">
         <v>-23.00084202168961</v>
       </c>
-      <c r="H57">
-        <v>-13.8816658839657</v>
-      </c>
-      <c r="I57">
-        <v>-29.50353520197313</v>
-      </c>
-      <c r="J57">
-        <v>-12.5556200866868</v>
-      </c>
       <c r="K57">
-        <v>-14.22955047423044</v>
+        <v>-31.39786745536453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="C58">
+        <v>-2.541347165155464</v>
+      </c>
+      <c r="D58">
+        <v>-18.55713020210873</v>
+      </c>
+      <c r="E58">
+        <v>-24.46736682480115</v>
+      </c>
+      <c r="F58">
+        <v>-14.24321889119828</v>
+      </c>
+      <c r="G58">
+        <v>-19.67968210795054</v>
+      </c>
+      <c r="H58">
+        <v>-4.887131113808106</v>
+      </c>
+      <c r="I58">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J58">
+        <v>-17.71141516649683</v>
+      </c>
+      <c r="K58">
+        <v>-30.9787620031367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>-28.81335696727066</v>
+      </c>
+      <c r="C59">
+        <v>-21.5327215634445</v>
+      </c>
+      <c r="D59">
+        <v>-22.35294200133441</v>
+      </c>
+      <c r="E59">
+        <v>-23.79477586937179</v>
+      </c>
+      <c r="F59">
+        <v>-15.00944550237757</v>
+      </c>
+      <c r="G59">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H59">
+        <v>-9.661295028205625</v>
+      </c>
+      <c r="I59">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J59">
+        <v>-13.84514423127604</v>
+      </c>
+      <c r="K59">
+        <v>-30.29305760840332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>-31.80463365646785</v>
+      </c>
+      <c r="C60">
+        <v>-18.78088519125793</v>
+      </c>
+      <c r="D60">
+        <v>-28.37534358929448</v>
+      </c>
+      <c r="E60">
+        <v>-25.32560935710429</v>
+      </c>
+      <c r="F60">
+        <v>-13.63055728134378</v>
+      </c>
+      <c r="G60">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H60">
+        <v>-4.369453759733805</v>
+      </c>
+      <c r="I60">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J60">
+        <v>-23.43976854507788</v>
+      </c>
+      <c r="K60">
+        <v>-32.29671284796633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>-19.26722785097369</v>
+      </c>
+      <c r="C61">
+        <v>-9.601457447550555</v>
+      </c>
+      <c r="D61">
+        <v>-22.46205062289864</v>
+      </c>
+      <c r="E61">
+        <v>-23.7227544477404</v>
+      </c>
+      <c r="F61">
+        <v>-14.99587766144374</v>
+      </c>
+      <c r="G61">
+        <v>-28.15775489242371</v>
+      </c>
+      <c r="H61">
+        <v>-9.382727499876236</v>
+      </c>
+      <c r="I61">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J61">
+        <v>-13.7060223726868</v>
+      </c>
+      <c r="K61">
+        <v>-29.9243384464061</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="C62">
+        <v>-1.106550228527804</v>
+      </c>
+      <c r="D62">
+        <v>-17.48350051865184</v>
+      </c>
+      <c r="E62">
+        <v>-24.10666146317187</v>
+      </c>
+      <c r="F62">
+        <v>-13.9805449533291</v>
+      </c>
+      <c r="G62">
+        <v>-4.632916366732728</v>
+      </c>
+      <c r="H62">
+        <v>-4.907881942808269</v>
+      </c>
+      <c r="I62">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J62">
+        <v>-14.42544065136098</v>
+      </c>
+      <c r="K62">
+        <v>-29.91347116150219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>-31.71982324678384</v>
+      </c>
+      <c r="C63">
+        <v>-8.92321188964632</v>
+      </c>
+      <c r="D63">
+        <v>-21.36368103256317</v>
+      </c>
+      <c r="E63">
+        <v>-23.81124684824211</v>
+      </c>
+      <c r="F63">
+        <v>-13.76351225154957</v>
+      </c>
+      <c r="G63">
+        <v>-28.4707848837874</v>
+      </c>
+      <c r="H63">
+        <v>-9.833263188120684</v>
+      </c>
+      <c r="I63">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J63">
+        <v>-16.99002930295525</v>
+      </c>
+      <c r="K63">
+        <v>-31.8084231745801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="C64">
+        <v>-9.323824338020009</v>
+      </c>
+      <c r="D64">
+        <v>-21.77035657522479</v>
+      </c>
+      <c r="E64">
+        <v>-24.95248641984386</v>
+      </c>
+      <c r="F64">
+        <v>-13.67517317811806</v>
+      </c>
+      <c r="G64">
+        <v>-28.51982241445517</v>
+      </c>
+      <c r="H64">
+        <v>-4.195738035077802</v>
+      </c>
+      <c r="I64">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J64">
+        <v>-26.74901085327087</v>
+      </c>
+      <c r="K64">
+        <v>-32.04670997562835</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>-31.873570682439</v>
+      </c>
+      <c r="C65">
+        <v>-7.944056077589086</v>
+      </c>
+      <c r="D65">
+        <v>-21.31075977992352</v>
+      </c>
+      <c r="E65">
+        <v>-24.16382824574431</v>
+      </c>
+      <c r="F65">
+        <v>-12.35590892133718</v>
+      </c>
+      <c r="G65">
+        <v>-16.27398476356617</v>
+      </c>
+      <c r="H65">
+        <v>-4.180910616814626</v>
+      </c>
+      <c r="I65">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J65">
+        <v>-23.52417385303202</v>
+      </c>
+      <c r="K65">
+        <v>-33.25948006040298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>-31.83345480476785</v>
+      </c>
+      <c r="C66">
+        <v>-3.046981980988928</v>
+      </c>
+      <c r="D66">
+        <v>-20.55870665745867</v>
+      </c>
+      <c r="E66">
+        <v>-24.36030925347409</v>
+      </c>
+      <c r="F66">
+        <v>-12.42248881362756</v>
+      </c>
+      <c r="G66">
+        <v>-20.80137203638602</v>
+      </c>
+      <c r="H66">
+        <v>-4.509324085393799</v>
+      </c>
+      <c r="I66">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J66">
+        <v>-27.15427340975589</v>
+      </c>
+      <c r="K66">
+        <v>-32.31683713545239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>-25.58511849055607</v>
+      </c>
+      <c r="C67">
+        <v>-10.85515612384365</v>
+      </c>
+      <c r="D67">
+        <v>-19.78057683252429</v>
+      </c>
+      <c r="E67">
+        <v>-24.41217640605483</v>
+      </c>
+      <c r="F67">
+        <v>-12.48188196267582</v>
+      </c>
+      <c r="G67">
+        <v>-28.49381148084557</v>
+      </c>
+      <c r="H67">
+        <v>-10.11012761959555</v>
+      </c>
+      <c r="I67">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J67">
+        <v>-17.28122605658607</v>
+      </c>
+      <c r="K67">
+        <v>-30.92811383259182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="C68">
+        <v>-12.68085716402184</v>
+      </c>
+      <c r="D68">
+        <v>-23.59098602762019</v>
+      </c>
+      <c r="E68">
+        <v>-25.36430011397572</v>
+      </c>
+      <c r="F68">
+        <v>-12.45892758008589</v>
+      </c>
+      <c r="G68">
+        <v>-28.48589501840679</v>
+      </c>
+      <c r="H68">
+        <v>-4.47509713926704</v>
+      </c>
+      <c r="I68">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J68">
+        <v>-23.8334675933392</v>
+      </c>
+      <c r="K68">
+        <v>-31.46604331809824</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>-31.82110203960003</v>
+      </c>
+      <c r="C69">
+        <v>-2.00096177532616</v>
+      </c>
+      <c r="D69">
+        <v>-19.12648964042798</v>
+      </c>
+      <c r="E69">
+        <v>-24.43165713756246</v>
+      </c>
+      <c r="F69">
+        <v>-11.09390334716804</v>
+      </c>
+      <c r="G69">
+        <v>-17.73714115459301</v>
+      </c>
+      <c r="H69">
+        <v>-4.259613581074613</v>
+      </c>
+      <c r="I69">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J69">
+        <v>-26.45971321179532</v>
+      </c>
+      <c r="K69">
+        <v>-32.29190610170502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="C70">
+        <v>-14.251427427344</v>
+      </c>
+      <c r="D70">
+        <v>-25.40201151700801</v>
+      </c>
+      <c r="E70">
+        <v>-23.95869158599843</v>
+      </c>
+      <c r="F70">
+        <v>-14.63752718751731</v>
+      </c>
+      <c r="G70">
+        <v>-27.05781692037853</v>
+      </c>
+      <c r="H70">
+        <v>-8.73671021626857</v>
+      </c>
+      <c r="I70">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J70">
+        <v>-15.48656655367673</v>
+      </c>
+      <c r="K70">
+        <v>-30.42011666745674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="C71">
+        <v>-8.256526872256391</v>
+      </c>
+      <c r="D71">
+        <v>-23.11911631360895</v>
+      </c>
+      <c r="E71">
+        <v>-24.26948875730254</v>
+      </c>
+      <c r="F71">
+        <v>-12.2996681095944</v>
+      </c>
+      <c r="G71">
+        <v>-27.57702567635671</v>
+      </c>
+      <c r="H71">
+        <v>-4.499950835638287</v>
+      </c>
+      <c r="I71">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J71">
+        <v>-23.13363864752626</v>
+      </c>
+      <c r="K71">
+        <v>-33.25924259904136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>-28.45998702605182</v>
+      </c>
+      <c r="C72">
+        <v>-10.1015388214982</v>
+      </c>
+      <c r="D72">
+        <v>-20.12226409791714</v>
+      </c>
+      <c r="E72">
+        <v>-23.90714594199243</v>
+      </c>
+      <c r="F72">
+        <v>-11.79370411248749</v>
+      </c>
+      <c r="G72">
+        <v>-21.92138195799701</v>
+      </c>
+      <c r="H72">
+        <v>-9.618759080222583</v>
+      </c>
+      <c r="I72">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J72">
+        <v>-17.58961780255622</v>
+      </c>
+      <c r="K72">
+        <v>-31.24885007002742</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>-31.65921498354508</v>
+      </c>
+      <c r="C73">
+        <v>-9.077718252424438</v>
+      </c>
+      <c r="D73">
+        <v>-23.37828948720525</v>
+      </c>
+      <c r="E73">
+        <v>-23.72853237705512</v>
+      </c>
+      <c r="F73">
+        <v>-11.30192639498209</v>
+      </c>
+      <c r="G73">
+        <v>-22.30334298322973</v>
+      </c>
+      <c r="H73">
+        <v>-4.94360458334593</v>
+      </c>
+      <c r="I73">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J73">
+        <v>-22.88917949493679</v>
+      </c>
+      <c r="K73">
+        <v>-32.197898505159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>-28.79811122162558</v>
+      </c>
+      <c r="C74">
+        <v>-5.840848479463672</v>
+      </c>
+      <c r="D74">
+        <v>-17.77340908229394</v>
+      </c>
+      <c r="E74">
+        <v>-22.33495894856231</v>
+      </c>
+      <c r="F74">
+        <v>-11.72054819473377</v>
+      </c>
+      <c r="G74">
+        <v>-22.19792602826521</v>
+      </c>
+      <c r="H74">
+        <v>-8.877000241941793</v>
+      </c>
+      <c r="I74">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J74">
+        <v>-13.19576513608071</v>
+      </c>
+      <c r="K74">
+        <v>-31.21496089078752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>-31.17012196939784</v>
+      </c>
+      <c r="C75">
+        <v>-5.535717724721424</v>
+      </c>
+      <c r="D75">
+        <v>-19.73445690416686</v>
+      </c>
+      <c r="E75">
+        <v>-22.75020857261344</v>
+      </c>
+      <c r="F75">
+        <v>-16.36530500154509</v>
+      </c>
+      <c r="G75">
+        <v>-21.93383514634347</v>
+      </c>
+      <c r="H75">
+        <v>-9.493746179936656</v>
+      </c>
+      <c r="I75">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J75">
+        <v>-17.18738664315513</v>
+      </c>
+      <c r="K75">
+        <v>-29.79371396333521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76">
+        <v>-23.1874579542428</v>
+      </c>
+      <c r="C76">
+        <v>-2.069532675570714</v>
+      </c>
+      <c r="D76">
+        <v>-19.78362276905177</v>
+      </c>
+      <c r="E76">
+        <v>-22.8838001305476</v>
+      </c>
+      <c r="F76">
+        <v>-15.92922778148687</v>
+      </c>
+      <c r="G76">
+        <v>-20.18629438604478</v>
+      </c>
+      <c r="H76">
+        <v>-9.418831672017028</v>
+      </c>
+      <c r="I76">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J76">
+        <v>-14.17559114390002</v>
+      </c>
+      <c r="K76">
+        <v>-30.31551342511722</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77">
+        <v>-28.97261302228266</v>
+      </c>
+      <c r="C77">
+        <v>-0.8042568509510488</v>
+      </c>
+      <c r="D77">
+        <v>-17.50580725827664</v>
+      </c>
+      <c r="E77">
+        <v>-24.18067002325888</v>
+      </c>
+      <c r="F77">
+        <v>-13.70415333510007</v>
+      </c>
+      <c r="G77">
+        <v>-5.816827825491035</v>
+      </c>
+      <c r="H77">
+        <v>-9.28597853655511</v>
+      </c>
+      <c r="I77">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J77">
+        <v>-14.39850221340922</v>
+      </c>
+      <c r="K77">
+        <v>-31.0741430791631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78">
+        <v>-29.17380017250907</v>
+      </c>
+      <c r="C78">
+        <v>-8.648436829069377</v>
+      </c>
+      <c r="D78">
+        <v>-22.18611344213653</v>
+      </c>
+      <c r="E78">
+        <v>-24.33050655770061</v>
+      </c>
+      <c r="F78">
+        <v>-13.58573797928621</v>
+      </c>
+      <c r="G78">
+        <v>-28.10081866660694</v>
+      </c>
+      <c r="H78">
+        <v>-4.389936263019041</v>
+      </c>
+      <c r="I78">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J78">
+        <v>-22.23094189923691</v>
+      </c>
+      <c r="K78">
+        <v>-32.26586183236307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79">
+        <v>-31.84282224330532</v>
+      </c>
+      <c r="C79">
+        <v>-8.099910114357307</v>
+      </c>
+      <c r="D79">
+        <v>-23.30446552338571</v>
+      </c>
+      <c r="E79">
+        <v>-24.7223103257059</v>
+      </c>
+      <c r="F79">
+        <v>-14.67337796919647</v>
+      </c>
+      <c r="G79">
+        <v>-27.79586700352988</v>
+      </c>
+      <c r="H79">
+        <v>-8.454066551034433</v>
+      </c>
+      <c r="I79">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J79">
+        <v>-20.06291702680409</v>
+      </c>
+      <c r="K79">
+        <v>-31.41080674980444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="C80">
+        <v>-9.27526509116171</v>
+      </c>
+      <c r="D80">
+        <v>-22.91387301067081</v>
+      </c>
+      <c r="E80">
+        <v>-25.51402283242345</v>
+      </c>
+      <c r="F80">
+        <v>-14.78302487838535</v>
+      </c>
+      <c r="G80">
+        <v>-26.57982989435781</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J80">
+        <v>-23.21049202075217</v>
+      </c>
+      <c r="K80">
+        <v>-33.25687639556576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81">
+        <v>-28.41319385924273</v>
+      </c>
+      <c r="C81">
+        <v>-9.954788130405635</v>
+      </c>
+      <c r="D81">
+        <v>-22.45472641682591</v>
+      </c>
+      <c r="E81">
+        <v>-24.38578820398805</v>
+      </c>
+      <c r="F81">
+        <v>-10.89070273320621</v>
+      </c>
+      <c r="G81">
+        <v>-27.89512122589257</v>
+      </c>
+      <c r="H81">
+        <v>-5.46784478210338</v>
+      </c>
+      <c r="I81">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J81">
+        <v>-25.80391321156495</v>
+      </c>
+      <c r="K81">
+        <v>-32.04670997562935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82">
+        <v>-31.80364064161316</v>
+      </c>
+      <c r="C82">
+        <v>-10.20446777617758</v>
+      </c>
+      <c r="D82">
+        <v>-23.08856638961631</v>
+      </c>
+      <c r="E82">
+        <v>-24.58240491543764</v>
+      </c>
+      <c r="F82">
+        <v>-13.45139751425181</v>
+      </c>
+      <c r="G82">
+        <v>-27.14226762510232</v>
+      </c>
+      <c r="H82">
+        <v>-8.388509308001598</v>
+      </c>
+      <c r="I82">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J82">
+        <v>-22.89432880145367</v>
+      </c>
+      <c r="K82">
+        <v>-32.34613821322998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83">
+        <v>-29.02976754149995</v>
+      </c>
+      <c r="C83">
+        <v>-13.98915111804836</v>
+      </c>
+      <c r="D83">
+        <v>-25.90626401350688</v>
+      </c>
+      <c r="E83">
+        <v>-25.5938653674339</v>
+      </c>
+      <c r="F83">
+        <v>-14.77962207057649</v>
+      </c>
+      <c r="G83">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J83">
+        <v>-23.39391496958152</v>
+      </c>
+      <c r="K83">
+        <v>-32.27691612277182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84">
+        <v>-28.67219321153384</v>
+      </c>
+      <c r="C84">
+        <v>-3.769536913193008</v>
+      </c>
+      <c r="D84">
+        <v>-22.07336700229559</v>
+      </c>
+      <c r="E84">
+        <v>-24.89128931844662</v>
+      </c>
+      <c r="F84">
+        <v>-11.05529773689005</v>
+      </c>
+      <c r="G84">
+        <v>-28.39998024537204</v>
+      </c>
+      <c r="H84">
+        <v>-8.77761954296291</v>
+      </c>
+      <c r="I84">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J84">
+        <v>-22.58171760946798</v>
+      </c>
+      <c r="K84">
+        <v>-32.16156526411852</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85">
+        <v>-31.74357212496453</v>
+      </c>
+      <c r="C85">
+        <v>-9.165151069226059</v>
+      </c>
+      <c r="D85">
+        <v>-25.72816495717618</v>
+      </c>
+      <c r="E85">
+        <v>-24.52486391876756</v>
+      </c>
+      <c r="F85">
+        <v>-11.13247721660639</v>
+      </c>
+      <c r="G85">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H85">
+        <v>-4.375908453029226</v>
+      </c>
+      <c r="I85">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J85">
+        <v>-17.96709959836087</v>
+      </c>
+      <c r="K85">
+        <v>-30.3896582401069</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86">
+        <v>-31.75135149853846</v>
+      </c>
+      <c r="C86">
+        <v>-5.948430268755307</v>
+      </c>
+      <c r="D86">
+        <v>-19.21260145595216</v>
+      </c>
+      <c r="E86">
+        <v>-22.74216401675531</v>
+      </c>
+      <c r="F86">
+        <v>-17.81652321845511</v>
+      </c>
+      <c r="G86">
+        <v>-28.44035717320999</v>
+      </c>
+      <c r="H86">
+        <v>-4.919443855296648</v>
+      </c>
+      <c r="I86">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J86">
+        <v>-12.72238993787886</v>
+      </c>
+      <c r="K86">
+        <v>-28.76462288115753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87">
+        <v>-31.81934615924489</v>
+      </c>
+      <c r="C87">
+        <v>-0.1109982417374446</v>
+      </c>
+      <c r="D87">
+        <v>-18.00474825569113</v>
+      </c>
+      <c r="E87">
+        <v>-23.45041132730793</v>
+      </c>
+      <c r="F87">
+        <v>-12.29731226645225</v>
+      </c>
+      <c r="G87">
+        <v>-3.48043814319861</v>
+      </c>
+      <c r="H87">
+        <v>-8.694770011138317</v>
+      </c>
+      <c r="I87">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J87">
+        <v>-18.30124266740693</v>
+      </c>
+      <c r="K87">
+        <v>-32.19305233557662</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="C88">
+        <v>-10.72502702908096</v>
+      </c>
+      <c r="D88">
+        <v>-23.35875986281501</v>
+      </c>
+      <c r="E88">
+        <v>-24.57522986581211</v>
+      </c>
+      <c r="F88">
+        <v>-17.19269403923743</v>
+      </c>
+      <c r="G88">
+        <v>-21.98937957746262</v>
+      </c>
+      <c r="H88">
+        <v>-0.2087938280818123</v>
+      </c>
+      <c r="I88">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J88">
+        <v>-22.61671982035304</v>
+      </c>
+      <c r="K88">
+        <v>-30.34602975568198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89">
+        <v>-31.75207776017252</v>
+      </c>
+      <c r="C89">
+        <v>-7.98070937141266</v>
+      </c>
+      <c r="D89">
+        <v>-25.39982470964774</v>
+      </c>
+      <c r="E89">
+        <v>-24.91967116785428</v>
+      </c>
+      <c r="F89">
+        <v>-13.59253702100592</v>
+      </c>
+      <c r="G89">
+        <v>-27.24098600070963</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J89">
+        <v>-22.80127334890319</v>
+      </c>
+      <c r="K89">
+        <v>-32.35580384906517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90">
+        <v>-29.05539408041466</v>
+      </c>
+      <c r="C90">
+        <v>-8.151550591085705</v>
+      </c>
+      <c r="D90">
+        <v>-25.48556448897011</v>
+      </c>
+      <c r="E90">
+        <v>-23.88822998286843</v>
+      </c>
+      <c r="F90">
+        <v>-13.5970214103645</v>
+      </c>
+      <c r="G90">
+        <v>-27.45242090089757</v>
+      </c>
+      <c r="H90">
+        <v>-8.976883389491361</v>
+      </c>
+      <c r="I90">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J90">
+        <v>-15.18627581452929</v>
+      </c>
+      <c r="K90">
+        <v>-31.27918155625626</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91">
+        <v>-26.1264130032974</v>
+      </c>
+      <c r="C91">
+        <v>-15.85638448204924</v>
+      </c>
+      <c r="D91">
+        <v>-24.4011301021275</v>
+      </c>
+      <c r="E91">
+        <v>-23.94491082671108</v>
+      </c>
+      <c r="F91">
+        <v>-16.47099995971485</v>
+      </c>
+      <c r="G91">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H91">
+        <v>-5.488451141863838</v>
+      </c>
+      <c r="I91">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J91">
+        <v>-17.08023047835125</v>
+      </c>
+      <c r="K91">
+        <v>-30.56533824355946</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92">
+        <v>-27.63173945636315</v>
+      </c>
+      <c r="C92">
+        <v>-20.80435885856664</v>
+      </c>
+      <c r="D92">
+        <v>-27.47007732468575</v>
+      </c>
+      <c r="E92">
+        <v>-24.02298507476104</v>
+      </c>
+      <c r="F92">
+        <v>-9.633975863514413</v>
+      </c>
+      <c r="G92">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>-34.53877639491068</v>
+      </c>
+      <c r="J92">
+        <v>-19.07199198045081</v>
+      </c>
+      <c r="K92">
+        <v>-31.02686532238522</v>
       </c>
     </row>
   </sheetData>

--- a/input/vaginal_mrs.xlsx
+++ b/input/vaginal_mrs.xlsx
@@ -1931,1925 +1931,1925 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>20221229_BC05</t>
+          <t>20230328_BC49</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0001436887058596133</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006809120875666342</v>
+        <v>0.4734714817043348</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02514169713097846</v>
+        <v>0.2367758489022886</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02956382631082029</v>
+        <v>0.03461341248054982</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08362274592650137</v>
+        <v>-0.06627049737934505</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004259878554775546</v>
+        <v>0.405222155164785</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.04841314364517252</v>
+        <v>-0.03138990012000637</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0004310661175788398</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.06337060012279559</v>
+        <v>0.2128625484694311</v>
       </c>
       <c r="K41" t="n">
-        <v>0.005530279562489603</v>
+        <v>-0.01611671625890349</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>20221229_BC02</t>
+          <t>20230328_BC34</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.003242027769600459</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9073523165051274</v>
+        <v>-0.3055183303786462</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1645150926535315</v>
+        <v>-0.08975896611411276</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02142998904424739</v>
+        <v>0.01563619740350616</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006608411074830628</v>
+        <v>-0.02504774728019</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4337580668915035</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0001251219659195118</v>
+        <v>-0.05847624972055927</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.006675376245480656</v>
+        <v>0.1498593426501968</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.05360303970627268</v>
+        <v>-0.0642650581136136</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>20221229_BC07</t>
+          <t>20230328_BC36</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0003515090021242112</v>
+        <v>0.0002340432487577688</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02070657309915077</v>
+        <v>0.3815807064938851</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02277345523051209</v>
+        <v>-0.1978249993904991</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02938209225055256</v>
+        <v>0.0005668567284404699</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08574466944034755</v>
+        <v>-0.00037790906870502</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01418887026202229</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.003444643568369848</v>
+        <v>-0.00173854100843925</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.03257072340170612</v>
+        <v>0.005013971239921531</v>
       </c>
       <c r="K43" t="n">
-        <v>0.004713708404295343</v>
+        <v>-0.07387079684215367</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>20221229_BC04</t>
+          <t>20230328_BC32</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0001083674969436144</v>
+        <v>0.09304865387277343</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6774008519921054</v>
+        <v>0.06807742493905188</v>
       </c>
       <c r="D44" t="n">
-        <v>0.333744987315867</v>
+        <v>0.01904300450032795</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0232582869225356</v>
+        <v>0.04326801355565556</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002173060150725628</v>
+        <v>0.03099233014914076</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4479313446485098</v>
+        <v>0.001312401093446732</v>
       </c>
       <c r="H44" t="n">
-        <v>-8.132125344261773e-05</v>
+        <v>-0.1089681114114057</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01612437489357143</v>
+        <v>0.3349538862559152</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.001871308369608463</v>
+        <v>0.02242734089608086</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>20221229_BC06</t>
+          <t>20230328_BC50</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.004732347989563723</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.05728468825514191</v>
+        <v>0.599542856884803</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07704071163639019</v>
+        <v>0.3602220426005968</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03991601464315513</v>
+        <v>0.0412572431457547</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02272316899607529</v>
+        <v>-0.03214344749897289</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04000247883859348</v>
+        <v>0.6299842377202385</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.1755030642603472</v>
+        <v>-0.03469041747507113</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.455754082002866</v>
+        <v>0.1473185935807473</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04103531872845018</v>
+        <v>0.01009839842068523</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>20230227_BC07</t>
+          <t>20230328_BC38</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0007646094702336669</v>
+        <v>0.0005007129434112753</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.3582835190100669</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1604386497538714</v>
+        <v>0.2105141703694496</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05357564501321219</v>
+        <v>0.03553814276429519</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.06466713108977493</v>
+        <v>-0.01444460447922911</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0003768351015841419</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.1668373262989449</v>
+        <v>-0.07234279212903365</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.537458327250021</v>
+        <v>0.3275854741911098</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05012886020817157</v>
+        <v>0.0141445630425926</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>20230227_BC08</t>
+          <t>20230328_BC56</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0002462494751640889</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3931005107260633</v>
+        <v>0.3994443391903282</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1884938488984786</v>
+        <v>0.2002143629713586</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01173239164674763</v>
+        <v>0.003053960828695146</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0005400670468844388</v>
+        <v>-5.751579568346572e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.000309812224699517</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.04130275202309252</v>
+        <v>-0.0006178647303781026</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.07494473944002632</v>
+        <v>0.0163723632144271</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.05921010167765459</v>
+        <v>-0.000227546315732848</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC05</t>
+          <t>20230328_BC40</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0007516627235206429</v>
+        <v>0.0001259887988451976</v>
       </c>
       <c r="C48" t="n">
-        <v>0.002431375943846321</v>
+        <v>-0.3983897609429662</v>
       </c>
       <c r="D48" t="n">
-        <v>0.167290913396781</v>
+        <v>-0.1995439304146367</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0584486412172475</v>
+        <v>0.0008430762712905687</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1904573785617034</v>
+        <v>0.001615504135889955</v>
       </c>
       <c r="G48" t="n">
-        <v>0.002362092658060304</v>
+        <v>0.00141516323001678</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.06661655346863167</v>
+        <v>-0.000565475756808927</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4234863355985217</v>
+        <v>0.003977040273632854</v>
       </c>
       <c r="K48" t="n">
-        <v>0.07057382742844523</v>
+        <v>-0.07419869639469365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC02</t>
+          <t>20230328_BC46</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001781252832546947</v>
+        <v>0.0001806694327884162</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3965682382373086</v>
+        <v>0.4297223318867707</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1956095547619678</v>
+        <v>-0.1840462697536613</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001534040700747923</v>
+        <v>0.00242700722454102</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003103319152292319</v>
+        <v>0.0005343661507276878</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001432428234580979</v>
+        <v>0.03777994047901675</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0007649669725093023</v>
+        <v>-0.003962228858374002</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.006008401483458241</v>
+        <v>0.002076829775157875</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.07391959897034961</v>
+        <v>-0.0739414252118215</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC03</t>
+          <t>20230328_BC39</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.00202358367917119</v>
+        <v>0.1154463489834404</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5641045363008861</v>
+        <v>0.001096478202762636</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2252554387906617</v>
+        <v>0.009573111895565417</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04043734058626419</v>
+        <v>0.04367250421021832</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.03461410909283938</v>
+        <v>-0.001253003118877752</v>
       </c>
       <c r="G50" t="n">
-        <v>0.431269310956221</v>
+        <v>0.0003437291010828508</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.03460242536108083</v>
+        <v>-0.1509944902386528</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2249651484635211</v>
+        <v>0.3204712196277874</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002800715477050127</v>
+        <v>0.009784075835095878</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC10</t>
+          <t>20230328_BC55</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.3955749949190014</v>
+        <v>-0.3957196886854581</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1976109848077313</v>
+        <v>-0.1992174067054509</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0005796516545710772</v>
+        <v>0.0002355827429344371</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.327171235515791e-06</v>
+        <v>0.0005309146145305087</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00168635246023749</v>
+        <v>0.00035476969375929</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>-0.003242859427732992</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.004063030136549752</v>
+        <v>0.001614584127191518</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0739292558085282</v>
+        <v>-0.07409770364425095</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC07</t>
+          <t>20230328_BC37</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.001720038275192313</v>
+        <v>0.0002018700335050141</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06363508834757217</v>
+        <v>0.6444063348965056</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03388231272059633</v>
+        <v>0.1923901183158563</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02308410362769227</v>
+        <v>0.04362778695403654</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.0001256424861763877</v>
+        <v>0.001692343325596965</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4551593729400856</v>
+        <v>0.8023676594734058</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.0002360041662053635</v>
+        <v>-0.0009046411744440336</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005891497190374688</v>
+        <v>0.0570425870118039</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0570442080358546</v>
+        <v>-0.04801326472917215</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC11</t>
+          <t>20230328_BC52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.001957558868288111</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.002226147616308051</v>
+        <v>0.2613338714237741</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1051989447989606</v>
+        <v>-0.1675843979287207</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04035558673171258</v>
+        <v>0.006814577840159208</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1239008701492063</v>
+        <v>0.001590482118348704</v>
       </c>
       <c r="G53" t="n">
-        <v>0.003850106634696882</v>
+        <v>0.07472850348686792</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.1803340268049415</v>
+        <v>-0.01101803859812299</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3263301820015905</v>
+        <v>0.03162223332087603</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06307213783363309</v>
+        <v>-0.07257731563583986</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC01</t>
+          <t>20230328_BC53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.03611284804440207</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02637653436105057</v>
+        <v>0.3480025442825344</v>
       </c>
       <c r="D54" t="n">
-        <v>0.008534447192460697</v>
+        <v>-0.1934535125318542</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03520654611182204</v>
+        <v>0.003188068091590521</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005778279507964328</v>
+        <v>0.002904600243471131</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01430495978994945</v>
+        <v>0.01270200713055006</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.2868010864950036</v>
+        <v>-0.003751061464202092</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2945679672334278</v>
+        <v>0.01319354670463498</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01312985809421407</v>
+        <v>-0.07409659481279253</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC04</t>
+          <t>20230328_BC35</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0006713675252128478</v>
+        <v>0.04961142045900987</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3997218760819036</v>
+        <v>0.00521900605442657</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1978455978394082</v>
+        <v>-0.03030455920622626</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001063917224430386</v>
+        <v>0.03428844518603862</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0003267453224374919</v>
+        <v>0.08254731748980279</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001205448382074343</v>
+        <v>0.00208613048860985</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.001000380974857434</v>
+        <v>-0.08617920515860394</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.003234855303132942</v>
+        <v>0.3453831580341765</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.07398031752322884</v>
+        <v>-0.01538845856351616</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC06</t>
+          <t>20230328_BC44</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0002644620240375748</v>
+        <v>0.0008607191975030398</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6668522803353798</v>
+        <v>0.3982977124970158</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3173842983266412</v>
+        <v>-0.1923549108087214</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02297244027443103</v>
+        <v>0.005256361543136298</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.0002194665714951181</v>
+        <v>-0.001824722585110354</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4647165114701988</v>
+        <v>0.0009745631715955816</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.0003966930360563622</v>
+        <v>-0.04099566325857641</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.003016142899326173</v>
+        <v>0.02449763176891431</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.006285478067598878</v>
+        <v>-0.06987807766289345</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>20230215_BC08</t>
+          <t>20230328_BC42</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.000874677648181117</v>
+        <v>0.004335913778937655</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6607669630310343</v>
+        <v>0.002088621066367305</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1525008840123738</v>
+        <v>-0.08759632199366532</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02526157837597555</v>
+        <v>0.07202300690066152</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0001219798136466278</v>
+        <v>0.1219805963843645</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4807035510890998</v>
+        <v>0.001308322086717353</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.02118757719097042</v>
+        <v>-0.01505293590549694</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.02201613105549413</v>
+        <v>0.424794654996318</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.05360255875489292</v>
+        <v>-0.04986328666780647</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC49</t>
+          <t>20230328_BC43</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.04360489125221342</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4734714817043348</v>
+        <v>0.004035841735210067</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2367758489022886</v>
+        <v>0.06173171734080975</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03461341248054982</v>
+        <v>0.05205639607142023</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.06627049737934505</v>
+        <v>0.02769907979125615</v>
       </c>
       <c r="G58" t="n">
-        <v>0.405222155164785</v>
+        <v>0.001959263201339136</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.03138990012000637</v>
+        <v>-0.03461377842243839</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2128625484694311</v>
+        <v>0.2889378793093548</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.01611671625890349</v>
+        <v>0.03909494746881032</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC34</t>
+          <t>20230328_BC47</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.003242027769600459</v>
+        <v>0.002925565762898168</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.3055183303786462</v>
+        <v>0.5250743423531566</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.08975896611411276</v>
+        <v>-0.1075265477378467</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01563619740350616</v>
+        <v>0.02661626415265027</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.02504774728019</v>
+        <v>0.003702147873254721</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.1726275241549894</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.05847624972055927</v>
+        <v>-0.02993349114000885</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1498593426501968</v>
+        <v>0.08781089186231646</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.0642650581136136</v>
+        <v>-0.0683812632474522</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC36</t>
+          <t>20230328_BC41</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0002340432487577688</v>
+        <v>0.001148637417649912</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3815807064938851</v>
+        <v>0.7213107669487043</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1978249993904991</v>
+        <v>0.4084712694191846</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0005668567284404699</v>
+        <v>0.03389207231252128</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.00037790906870502</v>
+        <v>-0.02181285141755355</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.5752444255527747</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.00173854100843925</v>
+        <v>-0.03121150527249909</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.005013971239921531</v>
+        <v>0.1183917037325343</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.07387079684215367</v>
+        <v>-0.0001174233531782534</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC32</t>
+          <t>20230328_BC33</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.09304865387277343</v>
+        <v>0.0002943184400109342</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06807742493905188</v>
+        <v>0.3809792779422981</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01904300450032795</v>
+        <v>0.06035340739613961</v>
       </c>
       <c r="E61" t="n">
-        <v>0.04326801355565556</v>
+        <v>0.006146375233451682</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03099233014914076</v>
+        <v>-0.0002233724440588878</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001312401093446732</v>
+        <v>0.001645535127311687</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.1089681114114057</v>
+        <v>-0.00196282619532578</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3349538862559152</v>
+        <v>0.07074068026922395</v>
       </c>
       <c r="K61" t="n">
-        <v>0.02242734089608086</v>
+        <v>-0.04913896965747732</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC50</t>
+          <t>20230328_BC51</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>0.0001660872515703498</v>
       </c>
       <c r="C62" t="n">
-        <v>0.599542856884803</v>
+        <v>0.4061654044813175</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3602220426005968</v>
+        <v>-0.1970753044955014</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0412572431457547</v>
+        <v>0.0006493603258158104</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.03214344749897289</v>
+        <v>0.0007005257599454669</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6299842377202385</v>
+        <v>0.005474723952584086</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.03469041747507113</v>
+        <v>-0.002461028807268576</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1473185935807473</v>
+        <v>0.003385590539910413</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01009839842068523</v>
+        <v>-0.07391170681891351</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC38</t>
+          <t>20230328_BC54</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0005007129434112753</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3582835190100669</v>
+        <v>0.2497498330109085</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2105141703694496</v>
+        <v>-0.108064479692432</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03553814276429519</v>
+        <v>0.01151681891871075</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.01444460447922911</v>
+        <v>9.428185745657239e-05</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0003768351015841419</v>
+        <v>0.2216295086061052</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.07234279212903365</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3275854741911098</v>
+        <v>0.01098680432613265</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0141445630425926</v>
+        <v>-0.07307955902222539</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC56</t>
+          <t>20230328_BC48</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.02053145260785224</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3994443391903282</v>
+        <v>0.01013993207877523</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2002143629713586</v>
+        <v>-0.003052275376347325</v>
       </c>
       <c r="E64" t="n">
-        <v>0.003053960828695146</v>
+        <v>0.03898369620588998</v>
       </c>
       <c r="F64" t="n">
-        <v>-5.751579568346572e-05</v>
+        <v>0.006087165013871916</v>
       </c>
       <c r="G64" t="n">
-        <v>0.000309812224699517</v>
+        <v>0.003711011290748371</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.0006178647303781026</v>
+        <v>-0.2119666022357595</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0163723632144271</v>
+        <v>0.2665100180545621</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.000227546315732848</v>
+        <v>-0.0024980311445477</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC40</t>
+          <t>20230328_BC45</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0001259887988451976</v>
+        <v>0.0002361391667761761</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.3983897609429662</v>
+        <v>-0.08864603235418382</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1995439304146367</v>
+        <v>-0.1743894817776503</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0008430762712905687</v>
+        <v>0.01154451775673332</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001615504135889955</v>
+        <v>0.003115222304964215</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00141516323001678</v>
+        <v>0.05802032297637293</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.000565475756808927</v>
+        <v>-0.00141167699072312</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.003977040273632854</v>
+        <v>0.09422268086451825</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.07419869639469365</v>
+        <v>-0.0734192933009388</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC46</t>
+          <t>20221229_BC05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0001806694327884162</v>
+        <v>0.0001436887058596133</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4297223318867707</v>
+        <v>0.006809120875666342</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.1840462697536613</v>
+        <v>0.02514169713097846</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00242700722454102</v>
+        <v>0.02956382631082029</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0005343661507276878</v>
+        <v>0.08362274592650137</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03777994047901675</v>
+        <v>0.004259878554775546</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.003962228858374002</v>
+        <v>-0.04841314364517252</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.0004310661175788398</v>
       </c>
       <c r="J66" t="n">
-        <v>0.002076829775157875</v>
+        <v>0.06337060012279559</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.0739414252118215</v>
+        <v>0.005530279562489603</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC39</t>
+          <t>20221229_BC02</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1154463489834404</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001096478202762636</v>
+        <v>0.9073523165051274</v>
       </c>
       <c r="D67" t="n">
-        <v>0.009573111895565417</v>
+        <v>0.1645150926535315</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04367250421021832</v>
+        <v>0.02142998904424739</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.001253003118877752</v>
+        <v>0.0006608411074830628</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0003437291010828508</v>
+        <v>0.4337580668915035</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.1509944902386528</v>
+        <v>-0.0001251219659195118</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.3204712196277874</v>
+        <v>0.006675376245480656</v>
       </c>
       <c r="K67" t="n">
-        <v>0.009784075835095878</v>
+        <v>-0.05360303970627268</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC55</t>
+          <t>20221229_BC07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.0003515090021242112</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.3957196886854581</v>
+        <v>0.02070657309915077</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.1992174067054509</v>
+        <v>0.02277345523051209</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0002355827429344371</v>
+        <v>0.02938209225055256</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0005309146145305087</v>
+        <v>0.08574466944034755</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00035476969375929</v>
+        <v>0.01418887026202229</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.003242859427732992</v>
+        <v>-0.003444643568369848</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.001614584127191518</v>
+        <v>0.03257072340170612</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.07409770364425095</v>
+        <v>0.004713708404295343</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC37</t>
+          <t>20221229_BC04</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0002018700335050141</v>
+        <v>0.0001083674969436144</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6444063348965056</v>
+        <v>0.6774008519921054</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1923901183158563</v>
+        <v>0.333744987315867</v>
       </c>
       <c r="E69" t="n">
-        <v>0.04362778695403654</v>
+        <v>0.0232582869225356</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001692343325596965</v>
+        <v>0.002173060150725628</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8023676594734058</v>
+        <v>0.4479313446485098</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.0009046411744440336</v>
+        <v>-8.132125344261773e-05</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0570425870118039</v>
+        <v>0.01612437489357143</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.04801326472917215</v>
+        <v>-0.001871308369608463</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC52</t>
+          <t>20221229_BC06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.004732347989563723</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2613338714237741</v>
+        <v>0.05728468825514191</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1675843979287207</v>
+        <v>0.07704071163639019</v>
       </c>
       <c r="E70" t="n">
-        <v>0.006814577840159208</v>
+        <v>0.03991601464315513</v>
       </c>
       <c r="F70" t="n">
-        <v>0.001590482118348704</v>
+        <v>0.02272316899607529</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07472850348686792</v>
+        <v>0.04000247883859348</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.01101803859812299</v>
+        <v>-0.1755030642603472</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.03162223332087603</v>
+        <v>0.455754082002866</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.07257731563583986</v>
+        <v>0.04103531872845018</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC53</t>
+          <t>20230227_BC07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.0007646094702336669</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3480025442825344</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1934535125318542</v>
+        <v>0.1604386497538714</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003188068091590521</v>
+        <v>0.05357564501321219</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002904600243471131</v>
+        <v>-0.06466713108977493</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01270200713055006</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.003751061464202092</v>
+        <v>-0.1668373262989449</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01319354670463498</v>
+        <v>0.537458327250021</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.07409659481279253</v>
+        <v>0.05012886020817157</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC35</t>
+          <t>20230227_BC08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.04961142045900987</v>
+        <v>0.0002462494751640889</v>
       </c>
       <c r="C72" t="n">
-        <v>0.00521900605442657</v>
+        <v>-0.3931005107260633</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.03030455920622626</v>
+        <v>-0.1884938488984786</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03428844518603862</v>
+        <v>0.01173239164674763</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08254731748980279</v>
+        <v>-0.0005400670468844388</v>
       </c>
       <c r="G72" t="n">
-        <v>0.00208613048860985</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.08617920515860394</v>
+        <v>-0.04130275202309252</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.3453831580341765</v>
+        <v>0.07494473944002632</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.01538845856351616</v>
+        <v>-0.05921010167765459</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC44</t>
+          <t>20230322_BC72</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0008607191975030398</v>
+        <v>0.0005957349376948467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3982977124970158</v>
+        <v>0.3266341149358714</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1923549108087214</v>
+        <v>-0.1967936468330777</v>
       </c>
       <c r="E73" t="n">
-        <v>0.005256361543136298</v>
+        <v>0.0006879170818814007</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.001824722585110354</v>
+        <v>0.0008564011504021497</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0009745631715955816</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.04099566325857641</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02449763176891431</v>
+        <v>0.006222209588455295</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.06987807766289345</v>
+        <v>-0.07358326332373645</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC42</t>
+          <t>20230322_BC77</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.004335913778937655</v>
+        <v>0.00470366355490682</v>
       </c>
       <c r="C74" t="n">
-        <v>0.002088621066367305</v>
+        <v>0.3224087571479483</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.08759632199366532</v>
+        <v>0.1200129272720805</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07202300690066152</v>
+        <v>0.005685359355822619</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1219805963843645</v>
+        <v>0.002312787483989106</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001308322086717353</v>
+        <v>0.0004999254641340411</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.01505293590549694</v>
+        <v>-0.01117159670343016</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.424794654996318</v>
+        <v>0.0233251146188738</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.04986328666780647</v>
+        <v>-0.01660256829037488</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC43</t>
+          <t>20230322_BC89</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.04360489125221342</v>
+        <v>0.0004047578036891061</v>
       </c>
       <c r="C75" t="n">
-        <v>0.004035841735210067</v>
+        <v>0.2979716544032026</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06173171734080975</v>
+        <v>-0.1435404476265331</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05205639607142023</v>
+        <v>0.02425899510943187</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02769907979125615</v>
+        <v>0.003094762268407197</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001959263201339136</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.03461377842243839</v>
+        <v>-0.00180634262519586</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2889378793093548</v>
+        <v>0.283731721222013</v>
       </c>
       <c r="K75" t="n">
-        <v>0.03909494746881032</v>
+        <v>-0.05466572447187669</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC47</t>
+          <t>20230322_BC73</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.002925565762898168</v>
+        <v>0.0003774950209381719</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5250743423531566</v>
+        <v>0.001360310974638831</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.1075265477378467</v>
+        <v>0.1532091752974166</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02661626415265027</v>
+        <v>0.0711303332508099</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003702147873254721</v>
+        <v>-0.05671926542422598</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1726275241549894</v>
+        <v>0.0004255124605938259</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.02993349114000885</v>
+        <v>-0.03677417963493045</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.08781089186231646</v>
+        <v>0.5587231085931922</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.0683812632474522</v>
+        <v>0.05967478774968606</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC41</t>
+          <t>20230322_BC74</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001148637417649912</v>
+        <v>0.0002050786870548268</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7213107669487043</v>
+        <v>0.7866420849621016</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4084712694191846</v>
+        <v>0.3030157815907856</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03389207231252128</v>
+        <v>0.04160919023925777</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.02181285141755355</v>
+        <v>0.007159346532333234</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5752444255527747</v>
+        <v>0.7260773203249894</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.03121150527249909</v>
+        <v>-0.007631127057487481</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1183917037325343</v>
+        <v>0.09878366251778299</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.0001174233531782534</v>
+        <v>-0.02563966161033644</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC33</t>
+          <t>20230322_BC75</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0002943184400109342</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3809792779422981</v>
+        <v>-0.01585101907006612</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06035340739613961</v>
+        <v>-0.1964023562735602</v>
       </c>
       <c r="E78" t="n">
-        <v>0.006146375233451682</v>
+        <v>0.003106612292561146</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.0002233724440588878</v>
+        <v>0.0003329371532924941</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001645535127311687</v>
+        <v>0.002142976721455944</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.00196282619532578</v>
+        <v>-0.002777550374411077</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.07074068026922395</v>
+        <v>0.02410709313842841</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.04913896965747732</v>
+        <v>-0.07032824245064531</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC51</t>
+          <t>20230322_BC76</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0001660872515703498</v>
+        <v>0.0003750451586889561</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4061654044813175</v>
+        <v>0.4332033026983651</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1970753044955014</v>
+        <v>-0.1787125979886822</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0006493603258158104</v>
+        <v>0.004453606566888041</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0007005257599454669</v>
+        <v>-0.0002742354187623928</v>
       </c>
       <c r="G79" t="n">
-        <v>0.005474723952584086</v>
+        <v>0.04226783572174848</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.002461028807268576</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.003385590539910413</v>
+        <v>0.02784455675744881</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.07391170681891351</v>
+        <v>-0.07394310855212725</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC54</t>
+          <t>20230322_BC96</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.0005777345143148615</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2497498330109085</v>
+        <v>0.4148077457482883</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.108064479692432</v>
+        <v>-0.1871570575900215</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01151681891871075</v>
+        <v>0.005353380527920511</v>
       </c>
       <c r="F80" t="n">
-        <v>9.428185745657239e-05</v>
+        <v>-9.493152118558392e-05</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2216295086061052</v>
+        <v>0.02018333166142914</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>-0.0181434029254432</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01098680432613265</v>
+        <v>0.0279664888000852</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.07307955902222539</v>
+        <v>-0.06988218092605747</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC48</t>
+          <t>20230322_BC79</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02053145260785224</v>
+        <v>0.001595805326623886</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01013993207877523</v>
+        <v>0.0003208562489406237</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.003052275376347325</v>
+        <v>0.1066224305048903</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03898369620588998</v>
+        <v>0.055263236796379</v>
       </c>
       <c r="F81" t="n">
-        <v>0.006087165013871916</v>
+        <v>-0.02675364813148197</v>
       </c>
       <c r="G81" t="n">
-        <v>0.003711011290748371</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.2119666022357595</v>
+        <v>-0.06750474379283376</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2665100180545621</v>
+        <v>0.3242803035519092</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.0024980311445477</v>
+        <v>0.05135114727595195</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>20230328_BC45</t>
+          <t>20230322_BC71</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0002361391667761761</v>
+        <v>0.1436741946998149</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.08864603235418382</v>
+        <v>-0.0002044413135630802</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1743894817776503</v>
+        <v>0.001986327905227178</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01154451775673332</v>
+        <v>0.003388561787408536</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003115222304964215</v>
+        <v>0.07570906212642746</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05802032297637293</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.00141167699072312</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.09422268086451825</v>
+        <v>0.01513288341148863</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.0734192933009388</v>
+        <v>0.0004847669301326959</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC72</t>
+          <t>20230215_BC05</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0005957349376948467</v>
+        <v>0.0007516627235206429</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3266341149358714</v>
+        <v>0.002431375943846321</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1967936468330777</v>
+        <v>0.167290913396781</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0006879170818814007</v>
+        <v>0.0584486412172475</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0008564011504021497</v>
+        <v>-0.1904573785617034</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.002362092658060304</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>-0.06661655346863167</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.006222209588455295</v>
+        <v>0.4234863355985217</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.07358326332373645</v>
+        <v>0.07057382742844523</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC77</t>
+          <t>20230215_BC02</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.00470366355490682</v>
+        <v>0.001781252832546947</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3224087571479483</v>
+        <v>-0.3965682382373086</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1200129272720805</v>
+        <v>-0.1956095547619678</v>
       </c>
       <c r="E84" t="n">
-        <v>0.005685359355822619</v>
+        <v>0.001534040700747923</v>
       </c>
       <c r="F84" t="n">
-        <v>0.002312787483989106</v>
+        <v>0.003103319152292319</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0004999254641340411</v>
+        <v>0.001432428234580979</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.01117159670343016</v>
+        <v>-0.0007649669725093023</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0233251146188738</v>
+        <v>0.006008401483458241</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.01660256829037488</v>
+        <v>-0.07391959897034961</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC89</t>
+          <t>20230215_BC03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0004047578036891061</v>
+        <v>0.00202358367917119</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2979716544032026</v>
+        <v>0.5641045363008861</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1435404476265331</v>
+        <v>0.2252554387906617</v>
       </c>
       <c r="E85" t="n">
-        <v>0.02425899510943187</v>
+        <v>0.04043734058626419</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003094762268407197</v>
+        <v>-0.03461410909283938</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.431269310956221</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.00180634262519586</v>
+        <v>-0.03460242536108083</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.283731721222013</v>
+        <v>0.2249651484635211</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.05466572447187669</v>
+        <v>0.002800715477050127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC73</t>
+          <t>20230215_BC10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0003774950209381719</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.001360310974638831</v>
+        <v>-0.3955749949190014</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1532091752974166</v>
+        <v>-0.1976109848077313</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0711303332508099</v>
+        <v>0.0005796516545710772</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.05671926542422598</v>
+        <v>-3.327171235515791e-06</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0004255124605938259</v>
+        <v>0.00168635246023749</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.03677417963493045</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.5587231085931922</v>
+        <v>0.004063030136549752</v>
       </c>
       <c r="K86" t="n">
-        <v>0.05967478774968606</v>
+        <v>-0.0739292558085282</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC74</t>
+          <t>20230215_BC07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0002050786870548268</v>
+        <v>0.001720038275192313</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7866420849621016</v>
+        <v>0.06363508834757217</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3030157815907856</v>
+        <v>0.03388231272059633</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04160919023925777</v>
+        <v>0.02308410362769227</v>
       </c>
       <c r="F87" t="n">
-        <v>0.007159346532333234</v>
+        <v>-0.0001256424861763877</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7260773203249894</v>
+        <v>0.4551593729400856</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.007631127057487481</v>
+        <v>-0.0002360041662053635</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.09878366251778299</v>
+        <v>0.005891497190374688</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.02563966161033644</v>
+        <v>-0.0570442080358546</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC75</t>
+          <t>20230215_BC11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.001957558868288111</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.01585101907006612</v>
+        <v>0.002226147616308051</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1964023562735602</v>
+        <v>0.1051989447989606</v>
       </c>
       <c r="E88" t="n">
-        <v>0.003106612292561146</v>
+        <v>0.04035558673171258</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0003329371532924941</v>
+        <v>-0.1239008701492063</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002142976721455944</v>
+        <v>0.003850106634696882</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.002777550374411077</v>
+        <v>-0.1803340268049415</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02410709313842841</v>
+        <v>0.3263301820015905</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.07032824245064531</v>
+        <v>0.06307213783363309</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC76</t>
+          <t>20230215_BC01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0003750451586889561</v>
+        <v>0.03611284804440207</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4332033026983651</v>
+        <v>0.02637653436105057</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.1787125979886822</v>
+        <v>0.008534447192460697</v>
       </c>
       <c r="E89" t="n">
-        <v>0.004453606566888041</v>
+        <v>0.03520654611182204</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.0002742354187623928</v>
+        <v>0.005778279507964328</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04226783572174848</v>
+        <v>0.01430495978994945</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>-0.2868010864950036</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02784455675744881</v>
+        <v>0.2945679672334278</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.07394310855212725</v>
+        <v>0.01312985809421407</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC96</t>
+          <t>20230215_BC04</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0005777345143148615</v>
+        <v>0.0006713675252128478</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4148077457482883</v>
+        <v>0.3997218760819036</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1871570575900215</v>
+        <v>-0.1978455978394082</v>
       </c>
       <c r="E90" t="n">
-        <v>0.005353380527920511</v>
+        <v>0.001063917224430386</v>
       </c>
       <c r="F90" t="n">
-        <v>-9.493152118558392e-05</v>
+        <v>0.0003267453224374919</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02018333166142914</v>
+        <v>0.001205448382074343</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.0181434029254432</v>
+        <v>-0.001000380974857434</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0279664888000852</v>
+        <v>0.003234855303132942</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.06988218092605747</v>
+        <v>-0.07398031752322884</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC79</t>
+          <t>20230215_BC06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001595805326623886</v>
+        <v>0.0002644620240375748</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0003208562489406237</v>
+        <v>0.6668522803353798</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1066224305048903</v>
+        <v>0.3173842983266412</v>
       </c>
       <c r="E91" t="n">
-        <v>0.055263236796379</v>
+        <v>0.02297244027443103</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.02675364813148197</v>
+        <v>-0.0002194665714951181</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.4647165114701988</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.06750474379283376</v>
+        <v>-0.0003966930360563622</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3242803035519092</v>
+        <v>0.003016142899326173</v>
       </c>
       <c r="K91" t="n">
-        <v>0.05135114727595195</v>
+        <v>-0.006285478067598878</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>20230322_BC71</t>
+          <t>20230215_BC08</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1436741946998149</v>
+        <v>0.000874677648181117</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.0002044413135630802</v>
+        <v>0.6607669630310343</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001986327905227178</v>
+        <v>0.1525008840123738</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003388561787408536</v>
+        <v>0.02526157837597555</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07570906212642746</v>
+        <v>0.0001219798136466278</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.4807035510890998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>-0.02118757719097042</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01513288341148863</v>
+        <v>0.02201613105549413</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0004847669301326959</v>
+        <v>-0.05360255875489292</v>
       </c>
     </row>
   </sheetData>
